--- a/bra_match_results.xlsx
+++ b/bra_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4948" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="879">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -1214,7 +1214,7 @@
     <t>380</t>
   </si>
   <si>
-    <t>Campeonato Brasileiro Série A</t>
+    <t>Campeonato Brasileiro SÃ©rie A</t>
   </si>
   <si>
     <t>M</t>
@@ -1415,12 +1415,15 @@
     <t>Arena do Grêmio</t>
   </si>
   <si>
+    <t>Arena Condá</t>
+  </si>
+  <si>
+    <t>Estádio Kleber José de Andrade</t>
+  </si>
+  <si>
     <t>Estádio Municipal Nílton Santos</t>
   </si>
   <si>
-    <t>Estádio Kleber José de Andrade</t>
-  </si>
-  <si>
     <t>Arena Barueri</t>
   </si>
   <si>
@@ -1511,13 +1514,22 @@
     <t>Savio Pereira</t>
   </si>
   <si>
+    <t>Raphael Claus</t>
+  </si>
+  <si>
+    <t>Denis da Silva Ribeiro Serafim</t>
+  </si>
+  <si>
     <t>Lucas Paulo Torezin</t>
   </si>
   <si>
     <t>Wilton Pereira Sampaio</t>
   </si>
   <si>
-    <t>Raphael Claus</t>
+    <t>Luciano da Silva Miranda</t>
+  </si>
+  <si>
+    <t>Jefferson Ferreira de Moraes</t>
   </si>
   <si>
     <t>Arthur Gomes Rabelo</t>
@@ -1532,9 +1544,6 @@
     <t>Emerson Ricardo de Almeida Andrade</t>
   </si>
   <si>
-    <t>Jefferson Ferreira de Moraes</t>
-  </si>
-  <si>
     <t>Match Postponed</t>
   </si>
   <si>
@@ -1784,16 +1793,640 @@
     <t>https://fbref.com/en/matches/4e96eb28/Corinthians-Criciuma-July-16-2024-Serie-A</t>
   </si>
   <si>
+    <t>https://fbref.com/en/matches/c20dad05/Atletico-Goianiense-Vasco-da-Gama-July-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1662bfc9/Sao-Paulo-Gremio-July-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d828c590/Fortaleza-Vitoria-July-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f2802382/Botafogo-RJ-Palmeiras-July-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7aa9d167/Flamengo-Criciuma-July-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/18ff17dd/Botafogo-RJ-Internacional-July-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ae87e6ed/Palmeiras-Cruzeiro-July-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/58dfa833/Gremio-Vitoria-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1534c147/Bahia-Corinthians-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/57c57174/Atletico-Mineiro-Vasco-da-Gama-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/658eff3c/Red-Bull-Bragantino-Athletico-Paranaense-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7ed52b26/Fortaleza-Atletico-Goianiense-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e4fcb89c/Juventude-Sao-Paulo-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cedc908c/Cuiaba-Fluminense-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4293655d/Cruzeiro-Juventude-July-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4c0485f1/Sao-Paulo-Botafogo-RJ-July-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/271e5c00/Vitoria-Flamengo-July-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4718c1cd/Atletico-Goianiense-Bahia-July-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fcb3a1d2/Fluminense-Palmeiras-July-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/00062d3c/Corinthians-Gremio-July-25-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c7829e3b/Bahia-Fluminense-April-16-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/12462f89/Gremio-Athletico-Paranaense-April-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4ad46089/Red-Bull-Bragantino-Vasco-da-Gama-April-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/11eccb6a/Juventude-Corinthians-April-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1d4e7bb0/Atletico-Mineiro-Criciuma-April-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5447208f/Palmeiras-Internacional-April-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/69ea969f/Fortaleza-Cruzeiro-April-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8929c613/Flamengo-Sao-Paulo-April-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4752f8cc/Botafogo-RJ-Atletico-Goianiense-April-18-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f22a2249/Cuiaba-Vitoria-June-5-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/884db190/Palmeiras-Vitoria-July-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b4a136d6/Juventude-Criciuma-July-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/06a41b67/Bahia-Internacional-July-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e929d90c/Botafogo-RJ-Cruzeiro-July-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f514c298/Fortaleza-Sao-Paulo-July-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cb781e8a/Red-Bull-Bragantino-Fluminense-July-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fe7b7eb3/Flamengo-Atletico-Goianiense-July-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c0e77847/Cuiaba-Athletico-Paranaense-July-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b6915a6/Atletico-Mineiro-Corinthians-July-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/79177145/Gremio-Vasco-da-Gama-July-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8746caf6/Vitoria-Cuiaba-August-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4348e241/Vasco-da-Gama-Red-Bull-Bragantino-August-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c1cfad94/Atletico-Goianiense-Botafogo-RJ-August-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e4bd97f5/Criciuma-Atletico-Mineiro-August-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/03c34ee9/Sao-Paulo-Flamengo-August-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/84ad3b2c/Fluminense-Bahia-August-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8d8133f9/Corinthians-Juventude-August-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e4136a2b/Athletico-Paranaense-Gremio-August-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0ea5728b/Internacional-Palmeiras-August-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ae2c8909/Cruzeiro-Fortaleza-August-5-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/3f7595bb/Fortaleza-vs-Criciuma-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/d5ae3703/Cuiaba-vs-Gremio-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/422bb734/03ff5eeb/Atletico-Mineiro-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/bf4acd28/Red-Bull-Bragantino-vs-Corinthians-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/83f55dbe/Fluminense-vs-Vasco-da-Gama-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/d081b697/Botafogo-RJ-vs-Juventude-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/32d508ca/Sao-Paulo-vs-Atletico-Goianiense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/639950ae/Palmeiras-vs-Flamengo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33f95fe0/157b7fee/Vitoria-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/2091c619/Internacional-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/422bb734/Cuiaba-vs-Atletico-Mineiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/a9d0ab0e/Red-Bull-Bragantino-vs-Fortaleza-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/157b7fee/Gremio-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/84d9701c/Corinthians-vs-Fluminense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/3f7595bb/Vasco-da-Gama-vs-Criciuma-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/5f232eb1/Palmeiras-vs-Sao-Paulo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/32d508ca/Internacional-vs-Atletico-Goianiense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/2091c619/Juventude-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/639950ae/Botafogo-RJ-vs-Flamengo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33f95fe0/03ff5eeb/Vitoria-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/32d508ca/Juventude-vs-Atletico-Goianiense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/abdce579/Cuiaba-vs-Palmeiras-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/422bb734/Fluminense-vs-Atletico-Mineiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/3f7595bb/Gremio-vs-Criciuma-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/03ff5eeb/Internacional-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/157b7fee/Botafogo-RJ-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/a9d0ab0e/Corinthians-vs-Fortaleza-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/33f95fe0/Sao-Paulo-vs-Vitoria-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/639950ae/Red-Bull-Bragantino-vs-Flamengo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/2091c619/Vasco-da-Gama-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/157b7fee/Red-Bull-Bragantino-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/3f7595bb/Cuiaba-vs-Criciuma-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/a9d0ab0e/Botafogo-RJ-vs-Fortaleza-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32d508ca/03ff5eeb/Atletico-Goianiense-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/422bb734/Gremio-vs-Atletico-Mineiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/2091c619/Palmeiras-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/639950ae/Corinthians-vs-Flamengo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/6f7e1f03/Juventude-vs-Internacional-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/5f232eb1/Fluminense-vs-Sao-Paulo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/33f95fe0/Vasco-da-Gama-vs-Vitoria-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/639950ae/Classico-dos-Milhoes-Vasco-da-Gama-vs-Flamengo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/03ff5eeb/Sao-Paulo-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/d5ae3703/Red-Bull-Bragantino-vs-Gremio-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33f95fe0/32d508ca/Vitoria-vs-Atletico-Goianiense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/422bb734/157b7fee/Atletico-Mineiro-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/bf4acd28/Botafogo-RJ-vs-Corinthians-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/2091c619/Fortaleza-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/6f7e1f03/Cuiaba-vs-Internacional-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/84d9701c/Juventude-vs-Fluminense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/3f7595bb/Palmeiras-vs-Criciuma-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/639950ae/Gremio-vs-Flamengo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/157b7fee/Fortaleza-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/5f232eb1/Internacional-vs-Sao-Paulo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/03ff5eeb/Cuiaba-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/84d9701c/Botafogo-RJ-vs-Fluminense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/33f95fe0/Juventude-vs-Vitoria-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/32d508ca/Corinthians-vs-Atletico-Goianiense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/3f7595bb/2091c619/Criciuma-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/83f55dbe/Palmeiras-vs-Vasco-da-Gama-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/422bb734/Red-Bull-Bragantino-vs-Atletico-Mineiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/03ff5eeb/Vasco-da-Gama-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/a9d0ab0e/Cuiaba-vs-Fortaleza-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/d5ae3703/Botafogo-RJ-vs-Gremio-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/d081b697/Red-Bull-Bragantino-vs-Juventude-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/32d508ca/Fluminense-vs-Atletico-Goianiense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/33f95fe0/Internacional-vs-Vitoria-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/5f232eb1/Classico-Majestoso-Corinthians-vs-Sao-Paulo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/422bb734/Palmeiras-vs-Atletico-Mineiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/3f7595bb/157b7fee/Criciuma-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/639950ae/2091c619/Flamengo-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/3f7595bb/32d508ca/Criciuma-vs-Atletico-Goianiense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/6f7e1f03/Corinthians-vs-Internacional-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/5f232eb1/Cuiaba-vs-Sao-Paulo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/abdce579/Red-Bull-Bragantino-vs-Palmeiras-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/639950ae/157b7fee/Flamengo-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/a9d0ab0e/Gremio-vs-Fortaleza-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/2091c619/Botafogo-RJ-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/83f55dbe/Juventude-vs-Vasco-da-Gama-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/03ff5eeb/Fluminense-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/422bb734/33f95fe0/Atletico-Mineiro-vs-Vitoria-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/85ba5adf/Fluminense-Vasco-da-Gama-April-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/45a73a6c/Red-Bull-Bragantino-Corinthians-April-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/891473c5/Gremio-Cuiaba-April-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2805e796/Atletico-Mineiro-Cruzeiro-April-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0d52ac06/Vitoria-Bahia-April-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a47977b4/Palmeiras-Flamengo-April-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eccd538c/Athletico-Paranaense-Internacional-April-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/90efe95f/Atletico-Goianiense-Sao-Paulo-April-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ef588d50/Botafogo-RJ-Juventude-April-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/39ce100c/Criciuma-Fortaleza-July-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/639950ae/Fluminense-vs-Flamengo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/5f232eb1/Vasco-da-Gama-vs-Sao-Paulo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/2091c619/Corinthians-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/abdce579/Juventude-vs-Palmeiras-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/157b7fee/03ff5eeb/Bahia-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/33f95fe0/Red-Bull-Bragantino-vs-Vitoria-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/422bb734/Fortaleza-vs-Atletico-Mineiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/32d508ca/Cuiaba-vs-Atletico-Goianiense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/3f7595bb/Botafogo-RJ-vs-Criciuma-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/6f7e1f03/Gremio-vs-Internacional-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/422bb734/Internacional-vs-Atletico-Mineiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2091c619/03ff5eeb/Athletico-Paranaense-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/33f95fe0/Fluminense-vs-Vitoria-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/d9fdd9d9/Red-Bull-Bragantino-vs-Botafogo-RJ-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/639950ae/Juventude-vs-Flamengo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/bf4acd28/Cuiaba-vs-Corinthians-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/32d508ca/Gremio-vs-Atletico-Goianiense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/3f7595bb/Sao-Paulo-vs-Criciuma-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/157b7fee/Vasco-da-Gama-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/a9d0ab0e/Palmeiras-vs-Fortaleza-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/a9d0ab0e/Juventude-vs-Fortaleza-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/f0e6fb14/Red-Bull-Bragantino-vs-Cuiaba-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/422bb734/32d508ca/Atletico-Mineiro-vs-Atletico-Goianiense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/abdce579/Corinthians-vs-Palmeiras-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/157b7fee/Sao-Paulo-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/3f7595bb/Internacional-vs-Criciuma-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33f95fe0/2091c619/Vitoria-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/84d9701c/Gremio-vs-Fluminense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/83f55dbe/Botafogo-RJ-vs-Vasco-da-Gama-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/639950ae/03ff5eeb/Flamengo-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/3f7595bb/03ff5eeb/Criciuma-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/83f55dbe/Fortaleza-vs-Vasco-da-Gama-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/33f95fe0/Corinthians-vs-Vitoria-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/32d508ca/Red-Bull-Bragantino-vs-Atletico-Goianiense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/abdce579/Gremio-vs-Palmeiras-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/d9fdd9d9/Cuiaba-vs-Botafogo-RJ-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/6f7e1f03/Fluminense-vs-Internacional-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/639950ae/422bb734/Flamengo-vs-Atletico-Mineiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/2091c619/Sao-Paulo-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/157b7fee/Juventude-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32d508ca/2091c619/Atletico-Goianiense-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/157b7fee/Palmeiras-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/422bb734/Botafogo-RJ-vs-Atletico-Mineiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/5f232eb1/Red-Bull-Bragantino-vs-Sao-Paulo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/6f7e1f03/Vasco-da-Gama-vs-Internacional-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/03ff5eeb/Corinthians-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/84d9701c/Fortaleza-vs-Fluminense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/639950ae/Cuiaba-vs-Flamengo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/d081b697/Gremio-vs-Juventude-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/3f7595bb/33f95fe0/Criciuma-vs-Vitoria-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/422bb734/Sao-Paulo-vs-Atletico-Mineiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/639950ae/Fortaleza-vs-Flamengo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2091c619/157b7fee/Athletico-Paranaense-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/03ff5eeb/Gremio-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/3f7595bb/Fluminense-vs-Criciuma-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/32d508ca/Palmeiras-vs-Atletico-Goianiense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/6f7e1f03/Red-Bull-Bragantino-vs-Internacional-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/33f95fe0/Botafogo-RJ-vs-Vitoria-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/83f55dbe/Corinthians-vs-Vasco-da-Gama-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/d081b697/Cuiaba-vs-Juventude-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/422bb734/Juventude-vs-Atletico-Mineiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/33f95fe0/Fortaleza-vs-Vitoria-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/3f7595bb/Corinthians-vs-Criciuma-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/32d508ca/Vasco-da-Gama-vs-Atletico-Goianiense-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/abdce579/Botafogo-RJ-vs-Palmeiras-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/03ff5eeb/Red-Bull-Bragantino-vs-Cruzeiro-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/157b7fee/Cuiaba-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/2091c619/Fluminense-vs-Athletico-Paranaense-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/5f232eb1/Gremio-vs-Sao-Paulo-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/33f95fe0/Fortaleza-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/abdce579/Botafogo-RJ-vs-Palmeiras-History</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/639950ae/Internacional-vs-Flamengo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/157b7fee/Corinthians-vs-Bahia-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/32d508ca/Fortaleza-vs-Atletico-Goianiense-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/639950ae/3f7595bb/Flamengo-vs-Criciuma-History</t>
@@ -1808,604 +2441,43 @@
     <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/33f95fe0/Gremio-vs-Vitoria-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/157b7fee/Corinthians-vs-Bahia-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/422bb734/Vasco-da-Gama-vs-Atletico-Mineiro-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/84d9701c/Cuiaba-vs-Fluminense-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/2091c619/Red-Bull-Bragantino-vs-Athletico-Paranaense-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/32d508ca/Fortaleza-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/d081b697/5f232eb1/Juventude-vs-Sao-Paulo-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/84d9701c/Cuiaba-vs-Fluminense-History</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/5f232eb1/Botafogo-RJ-vs-Sao-Paulo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/639950ae/33f95fe0/Flamengo-vs-Vitoria-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/83f55dbe/Cuiaba-vs-Vasco-da-Gama-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/3f7595bb/Red-Bull-Bragantino-vs-Criciuma-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/6f7e1f03/Fortaleza-vs-Internacional-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/bf4acd28/Gremio-vs-Corinthians-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/84d9701c/Palmeiras-vs-Fluminense-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32d508ca/157b7fee/Atletico-Goianiense-vs-Bahia-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/d081b697/03ff5eeb/Juventude-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/5f232eb1/Botafogo-RJ-vs-Sao-Paulo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/639950ae/33f95fe0/Flamengo-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32d508ca/157b7fee/Atletico-Goianiense-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/84d9701c/Palmeiras-vs-Fluminense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/bf4acd28/Gremio-vs-Corinthians-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c7829e3b/Bahia-Fluminense-April-16-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/12462f89/Gremio-Athletico-Paranaense-April-17-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/4ad46089/Red-Bull-Bragantino-Vasco-da-Gama-April-17-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/11eccb6a/Juventude-Corinthians-April-17-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/1d4e7bb0/Atletico-Mineiro-Criciuma-April-17-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/5447208f/Palmeiras-Internacional-April-17-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/69ea969f/Fortaleza-Cruzeiro-April-17-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/8929c613/Flamengo-Sao-Paulo-April-17-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/4752f8cc/Botafogo-RJ-Atletico-Goianiense-April-18-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/f22a2249/Cuiaba-Vitoria-June-5-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/157b7fee/Internacional-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/422bb734/Corinthians-vs-Atletico-Mineiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/83f55dbe/Gremio-vs-Vasco-da-Gama-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/33f95fe0/Palmeiras-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/3f7595bb/Juventude-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/2091c619/Cuiaba-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/84d9701c/Red-Bull-Bragantino-vs-Fluminense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/03ff5eeb/Botafogo-RJ-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/5f232eb1/Fortaleza-vs-Sao-Paulo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/639950ae/32d508ca/Flamengo-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/639950ae/5f232eb1/Flamengo-vs-Sao-Paulo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/6f7e1f03/Palmeiras-vs-Internacional-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/83f55dbe/Red-Bull-Bragantino-vs-Vasco-da-Gama-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/157b7fee/Fluminense-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/33f95fe0/Cuiaba-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/bf4acd28/Juventude-vs-Corinthians-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/03ff5eeb/Fortaleza-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/32d508ca/Botafogo-RJ-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/2091c619/Gremio-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/422bb734/3f7595bb/Atletico-Mineiro-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/2091c619/Internacional-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/d5ae3703/Cuiaba-vs-Gremio-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/422bb734/03ff5eeb/Atletico-Mineiro-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/d081b697/Botafogo-RJ-vs-Juventude-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/32d508ca/Sao-Paulo-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/bf4acd28/Red-Bull-Bragantino-vs-Corinthians-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/3f7595bb/Fortaleza-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/83f55dbe/Fluminense-vs-Vasco-da-Gama-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/639950ae/Palmeiras-vs-Flamengo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33f95fe0/157b7fee/Vitoria-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/3f7595bb/Vasco-da-Gama-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/a9d0ab0e/Red-Bull-Bragantino-vs-Fortaleza-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/5f232eb1/Palmeiras-vs-Sao-Paulo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33f95fe0/03ff5eeb/Vitoria-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/422bb734/Cuiaba-vs-Atletico-Mineiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/32d508ca/Internacional-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/2091c619/Juventude-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/84d9701c/Corinthians-vs-Fluminense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/639950ae/Botafogo-RJ-vs-Flamengo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/157b7fee/Gremio-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/03ff5eeb/Internacional-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/422bb734/Fluminense-vs-Atletico-Mineiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/3f7595bb/Gremio-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/639950ae/Red-Bull-Bragantino-vs-Flamengo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/abdce579/Cuiaba-vs-Palmeiras-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/32d508ca/Juventude-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/33f95fe0/Sao-Paulo-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/157b7fee/Botafogo-RJ-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/a9d0ab0e/Corinthians-vs-Fortaleza-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/2091c619/Vasco-da-Gama-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32d508ca/03ff5eeb/Atletico-Goianiense-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/3f7595bb/Cuiaba-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/6f7e1f03/Juventude-vs-Internacional-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/422bb734/Gremio-vs-Atletico-Mineiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/2091c619/Palmeiras-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/5f232eb1/Fluminense-vs-Sao-Paulo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/639950ae/Corinthians-vs-Flamengo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/33f95fe0/Vasco-da-Gama-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/157b7fee/Red-Bull-Bragantino-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/a9d0ab0e/Botafogo-RJ-vs-Fortaleza-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/639950ae/Classico-dos-Milhoes-Vasco-da-Gama-vs-Flamengo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/03ff5eeb/Sao-Paulo-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/d5ae3703/Red-Bull-Bragantino-vs-Gremio-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33f95fe0/32d508ca/Vitoria-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/422bb734/157b7fee/Atletico-Mineiro-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/bf4acd28/Botafogo-RJ-vs-Corinthians-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/2091c619/Fortaleza-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/6f7e1f03/Cuiaba-vs-Internacional-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/84d9701c/Juventude-vs-Fluminense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/3f7595bb/Palmeiras-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/639950ae/Gremio-vs-Flamengo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/157b7fee/Fortaleza-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/5f232eb1/Internacional-vs-Sao-Paulo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/03ff5eeb/Cuiaba-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/84d9701c/Botafogo-RJ-vs-Fluminense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/33f95fe0/Juventude-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/32d508ca/Corinthians-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/3f7595bb/2091c619/Criciuma-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/83f55dbe/Palmeiras-vs-Vasco-da-Gama-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/422bb734/Red-Bull-Bragantino-vs-Atletico-Mineiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/03ff5eeb/Vasco-da-Gama-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/a9d0ab0e/Cuiaba-vs-Fortaleza-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/d5ae3703/Botafogo-RJ-vs-Gremio-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/d081b697/Red-Bull-Bragantino-vs-Juventude-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/32d508ca/Fluminense-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/33f95fe0/Internacional-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/5f232eb1/Classico-Majestoso-Corinthians-vs-Sao-Paulo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/422bb734/Palmeiras-vs-Atletico-Mineiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/3f7595bb/157b7fee/Criciuma-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/639950ae/2091c619/Flamengo-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/3f7595bb/32d508ca/Criciuma-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/6f7e1f03/Corinthians-vs-Internacional-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/5f232eb1/Cuiaba-vs-Sao-Paulo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/abdce579/Red-Bull-Bragantino-vs-Palmeiras-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/639950ae/157b7fee/Flamengo-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/a9d0ab0e/Gremio-vs-Fortaleza-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/2091c619/Botafogo-RJ-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/83f55dbe/Juventude-vs-Vasco-da-Gama-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/03ff5eeb/Fluminense-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/422bb734/33f95fe0/Atletico-Mineiro-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/85ba5adf/Fluminense-Vasco-da-Gama-April-20-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/45a73a6c/Red-Bull-Bragantino-Corinthians-April-20-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/891473c5/Gremio-Cuiaba-April-20-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/2805e796/Atletico-Mineiro-Cruzeiro-April-20-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/0d52ac06/Vitoria-Bahia-April-21-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/a47977b4/Palmeiras-Flamengo-April-21-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/eccd538c/Athletico-Paranaense-Internacional-April-21-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/90efe95f/Atletico-Goianiense-Sao-Paulo-April-21-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/ef588d50/Botafogo-RJ-Juventude-April-21-2024-Serie-A</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/639950ae/Fluminense-vs-Flamengo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/5f232eb1/Vasco-da-Gama-vs-Sao-Paulo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/2091c619/Corinthians-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/abdce579/Juventude-vs-Palmeiras-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/157b7fee/03ff5eeb/Bahia-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/33f95fe0/Red-Bull-Bragantino-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/422bb734/Fortaleza-vs-Atletico-Mineiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/32d508ca/Cuiaba-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/3f7595bb/Botafogo-RJ-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/6f7e1f03/Gremio-vs-Internacional-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/422bb734/Internacional-vs-Atletico-Mineiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2091c619/03ff5eeb/Athletico-Paranaense-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/33f95fe0/Fluminense-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/d9fdd9d9/Red-Bull-Bragantino-vs-Botafogo-RJ-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/639950ae/Juventude-vs-Flamengo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/bf4acd28/Cuiaba-vs-Corinthians-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/32d508ca/Gremio-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/3f7595bb/Sao-Paulo-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/157b7fee/Vasco-da-Gama-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/a9d0ab0e/Palmeiras-vs-Fortaleza-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/a9d0ab0e/Juventude-vs-Fortaleza-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/f0e6fb14/Red-Bull-Bragantino-vs-Cuiaba-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/422bb734/32d508ca/Atletico-Mineiro-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/abdce579/Corinthians-vs-Palmeiras-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/157b7fee/Sao-Paulo-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/3f7595bb/Internacional-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33f95fe0/2091c619/Vitoria-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/84d9701c/Gremio-vs-Fluminense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/83f55dbe/Botafogo-RJ-vs-Vasco-da-Gama-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/639950ae/03ff5eeb/Flamengo-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/3f7595bb/03ff5eeb/Criciuma-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/83f55dbe/Fortaleza-vs-Vasco-da-Gama-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/33f95fe0/Corinthians-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/32d508ca/Red-Bull-Bragantino-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/abdce579/Gremio-vs-Palmeiras-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/d9fdd9d9/Cuiaba-vs-Botafogo-RJ-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/6f7e1f03/Fluminense-vs-Internacional-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/639950ae/422bb734/Flamengo-vs-Atletico-Mineiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/2091c619/Sao-Paulo-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/157b7fee/Juventude-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32d508ca/2091c619/Atletico-Goianiense-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/157b7fee/Palmeiras-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/422bb734/Botafogo-RJ-vs-Atletico-Mineiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/5f232eb1/Red-Bull-Bragantino-vs-Sao-Paulo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/83f55dbe/6f7e1f03/Vasco-da-Gama-vs-Internacional-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/03ff5eeb/Corinthians-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/84d9701c/Fortaleza-vs-Fluminense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/639950ae/Cuiaba-vs-Flamengo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/d081b697/Gremio-vs-Juventude-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/3f7595bb/33f95fe0/Criciuma-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5f232eb1/422bb734/Sao-Paulo-vs-Atletico-Mineiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/639950ae/Fortaleza-vs-Flamengo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2091c619/157b7fee/Athletico-Paranaense-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d5ae3703/03ff5eeb/Gremio-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/3f7595bb/Fluminense-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/abdce579/32d508ca/Palmeiras-vs-Atletico-Goianiense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/6f7e1f03/Red-Bull-Bragantino-vs-Internacional-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9fdd9d9/33f95fe0/Botafogo-RJ-vs-Vitoria-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/83f55dbe/Corinthians-vs-Vasco-da-Gama-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/d081b697/Cuiaba-vs-Juventude-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d081b697/422bb734/Juventude-vs-Atletico-Mineiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bf4acd28/3f7595bb/Corinthians-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/03ff5eeb/Red-Bull-Bragantino-vs-Cruzeiro-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/157b7fee/Cuiaba-vs-Bahia-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/84d9701c/2091c619/Fluminense-vs-Athletico-Paranaense-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f7e1f03/639950ae/Internacional-vs-Flamengo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f0e6fb14/83f55dbe/Cuiaba-vs-Vasco-da-Gama-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f98930d1/3f7595bb/Red-Bull-Bragantino-vs-Criciuma-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a9d0ab0e/6f7e1f03/Fortaleza-vs-Internacional-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/422bb734/2091c619/Atletico-Mineiro-vs-Athletico-Paranaense-History</t>
@@ -2750,13 +2822,13 @@
         <v>442</v>
       </c>
       <c r="S2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T2" t="s">
         <v>420</v>
       </c>
       <c r="U2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3">
@@ -2815,13 +2887,13 @@
         <v>443</v>
       </c>
       <c r="S3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T3" t="s">
         <v>420</v>
       </c>
       <c r="U3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4">
@@ -2880,13 +2952,13 @@
         <v>444</v>
       </c>
       <c r="S4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T4" t="s">
         <v>420</v>
       </c>
       <c r="U4" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5">
@@ -2945,13 +3017,13 @@
         <v>445</v>
       </c>
       <c r="S5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T5" t="s">
         <v>420</v>
       </c>
       <c r="U5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6">
@@ -3010,13 +3082,13 @@
         <v>446</v>
       </c>
       <c r="S6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T6" t="s">
         <v>420</v>
       </c>
       <c r="U6" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7">
@@ -3075,13 +3147,13 @@
         <v>447</v>
       </c>
       <c r="S7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T7" t="s">
         <v>420</v>
       </c>
       <c r="U7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8">
@@ -3140,13 +3212,13 @@
         <v>448</v>
       </c>
       <c r="S8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="T8" t="s">
         <v>420</v>
       </c>
       <c r="U8" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9">
@@ -3205,13 +3277,13 @@
         <v>449</v>
       </c>
       <c r="S9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T9" t="s">
         <v>420</v>
       </c>
       <c r="U9" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10">
@@ -3270,13 +3342,13 @@
         <v>450</v>
       </c>
       <c r="S10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T10" t="s">
         <v>420</v>
       </c>
       <c r="U10" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11">
@@ -3335,13 +3407,13 @@
         <v>451</v>
       </c>
       <c r="S11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T11" t="s">
         <v>420</v>
       </c>
       <c r="U11" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12">
@@ -3400,13 +3472,13 @@
         <v>452</v>
       </c>
       <c r="S12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T12" t="s">
         <v>420</v>
       </c>
       <c r="U12" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13">
@@ -3465,13 +3537,13 @@
         <v>453</v>
       </c>
       <c r="S13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T13" t="s">
         <v>420</v>
       </c>
       <c r="U13" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14">
@@ -3530,13 +3602,13 @@
         <v>454</v>
       </c>
       <c r="S14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T14" t="s">
         <v>420</v>
       </c>
       <c r="U14" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15">
@@ -3595,13 +3667,13 @@
         <v>445</v>
       </c>
       <c r="S15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T15" t="s">
         <v>420</v>
       </c>
       <c r="U15" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16">
@@ -3660,13 +3732,13 @@
         <v>455</v>
       </c>
       <c r="S16" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="T16" t="s">
         <v>420</v>
       </c>
       <c r="U16" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17">
@@ -3725,13 +3797,13 @@
         <v>456</v>
       </c>
       <c r="S17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T17" t="s">
         <v>420</v>
       </c>
       <c r="U17" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18">
@@ -3790,13 +3862,13 @@
         <v>450</v>
       </c>
       <c r="S18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T18" t="s">
         <v>420</v>
       </c>
       <c r="U18" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19">
@@ -3855,13 +3927,13 @@
         <v>451</v>
       </c>
       <c r="S19" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T19" t="s">
         <v>420</v>
       </c>
       <c r="U19" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20">
@@ -3920,13 +3992,13 @@
         <v>444</v>
       </c>
       <c r="S20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T20" t="s">
         <v>420</v>
       </c>
       <c r="U20" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21">
@@ -3985,13 +4057,13 @@
         <v>457</v>
       </c>
       <c r="S21" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T21" t="s">
         <v>420</v>
       </c>
       <c r="U21" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22">
@@ -4050,13 +4122,13 @@
         <v>442</v>
       </c>
       <c r="S22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="T22" t="s">
         <v>420</v>
       </c>
       <c r="U22" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23">
@@ -4115,13 +4187,13 @@
         <v>458</v>
       </c>
       <c r="S23" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T23" t="s">
         <v>420</v>
       </c>
       <c r="U23" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24">
@@ -4180,13 +4252,13 @@
         <v>459</v>
       </c>
       <c r="S24" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T24" t="s">
         <v>420</v>
       </c>
       <c r="U24" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25">
@@ -4245,13 +4317,13 @@
         <v>447</v>
       </c>
       <c r="S25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T25" t="s">
         <v>420</v>
       </c>
       <c r="U25" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26">
@@ -4310,13 +4382,13 @@
         <v>444</v>
       </c>
       <c r="S26" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T26" t="s">
         <v>420</v>
       </c>
       <c r="U26" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27">
@@ -4375,13 +4447,13 @@
         <v>460</v>
       </c>
       <c r="S27" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T27" t="s">
         <v>420</v>
       </c>
       <c r="U27" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28">
@@ -4440,13 +4512,13 @@
         <v>446</v>
       </c>
       <c r="S28" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T28" t="s">
         <v>420</v>
       </c>
       <c r="U28" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29">
@@ -4505,13 +4577,13 @@
         <v>461</v>
       </c>
       <c r="S29" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T29" t="s">
         <v>420</v>
       </c>
       <c r="U29" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30">
@@ -4570,13 +4642,13 @@
         <v>457</v>
       </c>
       <c r="S30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T30" t="s">
         <v>420</v>
       </c>
       <c r="U30" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31">
@@ -4635,13 +4707,13 @@
         <v>462</v>
       </c>
       <c r="S31" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T31" t="s">
         <v>420</v>
       </c>
       <c r="U31" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32">
@@ -4700,13 +4772,13 @@
         <v>453</v>
       </c>
       <c r="S32" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T32" t="s">
         <v>420</v>
       </c>
       <c r="U32" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33">
@@ -4765,13 +4837,13 @@
         <v>450</v>
       </c>
       <c r="S33" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T33" t="s">
         <v>420</v>
       </c>
       <c r="U33" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34">
@@ -4830,13 +4902,13 @@
         <v>455</v>
       </c>
       <c r="S34" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T34" t="s">
         <v>420</v>
       </c>
       <c r="U34" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35">
@@ -4895,13 +4967,13 @@
         <v>452</v>
       </c>
       <c r="S35" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T35" t="s">
         <v>420</v>
       </c>
       <c r="U35" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36">
@@ -4960,13 +5032,13 @@
         <v>448</v>
       </c>
       <c r="S36" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="T36" t="s">
         <v>420</v>
       </c>
       <c r="U36" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37">
@@ -5025,13 +5097,13 @@
         <v>460</v>
       </c>
       <c r="S37" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T37" t="s">
         <v>420</v>
       </c>
       <c r="U37" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38">
@@ -5090,13 +5162,13 @@
         <v>442</v>
       </c>
       <c r="S38" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="T38" t="s">
         <v>420</v>
       </c>
       <c r="U38" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39">
@@ -5155,13 +5227,13 @@
         <v>454</v>
       </c>
       <c r="S39" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T39" t="s">
         <v>420</v>
       </c>
       <c r="U39" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40">
@@ -5220,13 +5292,13 @@
         <v>444</v>
       </c>
       <c r="S40" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T40" t="s">
         <v>420</v>
       </c>
       <c r="U40" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41">
@@ -5285,13 +5357,13 @@
         <v>445</v>
       </c>
       <c r="S41" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T41" t="s">
         <v>420</v>
       </c>
       <c r="U41" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42">
@@ -5350,13 +5422,13 @@
         <v>458</v>
       </c>
       <c r="S42" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T42" t="s">
         <v>420</v>
       </c>
       <c r="U42" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43">
@@ -5415,13 +5487,13 @@
         <v>447</v>
       </c>
       <c r="S43" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T43" t="s">
         <v>420</v>
       </c>
       <c r="U43" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44">
@@ -5480,13 +5552,13 @@
         <v>461</v>
       </c>
       <c r="S44" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T44" t="s">
         <v>420</v>
       </c>
       <c r="U44" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45">
@@ -5545,13 +5617,13 @@
         <v>445</v>
       </c>
       <c r="S45" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T45" t="s">
         <v>420</v>
       </c>
       <c r="U45" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46">
@@ -5610,13 +5682,13 @@
         <v>454</v>
       </c>
       <c r="S46" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T46" t="s">
         <v>420</v>
       </c>
       <c r="U46" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47">
@@ -5675,13 +5747,13 @@
         <v>463</v>
       </c>
       <c r="S47" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="T47" t="s">
         <v>420</v>
       </c>
       <c r="U47" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="48">
@@ -5740,13 +5812,13 @@
         <v>444</v>
       </c>
       <c r="S48" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T48" t="s">
         <v>420</v>
       </c>
       <c r="U48" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="49">
@@ -5805,13 +5877,13 @@
         <v>442</v>
       </c>
       <c r="S49" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T49" t="s">
         <v>420</v>
       </c>
       <c r="U49" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="50">
@@ -5870,13 +5942,13 @@
         <v>451</v>
       </c>
       <c r="S50" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T50" t="s">
         <v>420</v>
       </c>
       <c r="U50" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="51">
@@ -5926,7 +5998,7 @@
         <v>0.0</v>
       </c>
       <c r="P51" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q51" t="n">
         <v>41175.0</v>
@@ -5935,13 +6007,13 @@
         <v>457</v>
       </c>
       <c r="S51" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T51" t="s">
         <v>420</v>
       </c>
       <c r="U51" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="52">
@@ -6000,13 +6072,13 @@
         <v>458</v>
       </c>
       <c r="S52" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="T52" t="s">
         <v>420</v>
       </c>
       <c r="U52" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53">
@@ -6065,13 +6137,13 @@
         <v>447</v>
       </c>
       <c r="S53" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T53" t="s">
         <v>420</v>
       </c>
       <c r="U53" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54">
@@ -6130,13 +6202,13 @@
         <v>442</v>
       </c>
       <c r="S54" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T54" t="s">
         <v>420</v>
       </c>
       <c r="U54" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="55">
@@ -6195,13 +6267,13 @@
         <v>446</v>
       </c>
       <c r="S55" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T55" t="s">
         <v>420</v>
       </c>
       <c r="U55" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56">
@@ -6260,13 +6332,13 @@
         <v>462</v>
       </c>
       <c r="S56" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T56" t="s">
         <v>420</v>
       </c>
       <c r="U56" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57">
@@ -6325,13 +6397,13 @@
         <v>461</v>
       </c>
       <c r="S57" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T57" t="s">
         <v>420</v>
       </c>
       <c r="U57" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58">
@@ -6390,13 +6462,13 @@
         <v>463</v>
       </c>
       <c r="S58" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T58" t="s">
         <v>420</v>
       </c>
       <c r="U58" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59">
@@ -6455,13 +6527,13 @@
         <v>460</v>
       </c>
       <c r="S59" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T59" t="s">
         <v>420</v>
       </c>
       <c r="U59" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60">
@@ -6520,13 +6592,13 @@
         <v>448</v>
       </c>
       <c r="S60" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T60" t="s">
         <v>420</v>
       </c>
       <c r="U60" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61">
@@ -6585,13 +6657,13 @@
         <v>444</v>
       </c>
       <c r="S61" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T61" t="s">
         <v>420</v>
       </c>
       <c r="U61" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62">
@@ -6650,13 +6722,13 @@
         <v>444</v>
       </c>
       <c r="S62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T62" t="s">
         <v>420</v>
       </c>
       <c r="U62" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63">
@@ -6715,13 +6787,13 @@
         <v>445</v>
       </c>
       <c r="S63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T63" t="s">
         <v>420</v>
       </c>
       <c r="U63" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64">
@@ -6780,13 +6852,13 @@
         <v>454</v>
       </c>
       <c r="S64" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T64" t="s">
         <v>420</v>
       </c>
       <c r="U64" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65">
@@ -6845,13 +6917,13 @@
         <v>455</v>
       </c>
       <c r="S65" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T65" t="s">
         <v>420</v>
       </c>
       <c r="U65" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66">
@@ -6910,13 +6982,13 @@
         <v>450</v>
       </c>
       <c r="S66" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T66" t="s">
         <v>420</v>
       </c>
       <c r="U66" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67">
@@ -6975,13 +7047,13 @@
         <v>443</v>
       </c>
       <c r="S67" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T67" t="s">
         <v>420</v>
       </c>
       <c r="U67" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68">
@@ -7040,13 +7112,13 @@
         <v>452</v>
       </c>
       <c r="S68" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T68" t="s">
         <v>420</v>
       </c>
       <c r="U68" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69">
@@ -7105,13 +7177,13 @@
         <v>457</v>
       </c>
       <c r="S69" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T69" t="s">
         <v>420</v>
       </c>
       <c r="U69" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70">
@@ -7170,13 +7242,13 @@
         <v>451</v>
       </c>
       <c r="S70" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T70" t="s">
         <v>420</v>
       </c>
       <c r="U70" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71">
@@ -7235,13 +7307,13 @@
         <v>453</v>
       </c>
       <c r="S71" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T71" t="s">
         <v>420</v>
       </c>
       <c r="U71" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="72">
@@ -7303,7 +7375,7 @@
         <v>420</v>
       </c>
       <c r="T72" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="U72" t="e">
         <v>#N/A</v>
@@ -7368,7 +7440,7 @@
         <v>420</v>
       </c>
       <c r="T73" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="U73" t="e">
         <v>#N/A</v>
@@ -7430,13 +7502,13 @@
         <v>463</v>
       </c>
       <c r="S74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T74" t="s">
         <v>420</v>
       </c>
       <c r="U74" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75">
@@ -7495,13 +7567,13 @@
         <v>446</v>
       </c>
       <c r="S75" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T75" t="s">
         <v>420</v>
       </c>
       <c r="U75" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="76">
@@ -7560,13 +7632,13 @@
         <v>447</v>
       </c>
       <c r="S76" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T76" t="s">
         <v>420</v>
       </c>
       <c r="U76" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="77">
@@ -7625,13 +7697,13 @@
         <v>457</v>
       </c>
       <c r="S77" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T77" t="s">
         <v>420</v>
       </c>
       <c r="U77" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="78">
@@ -7690,13 +7762,13 @@
         <v>444</v>
       </c>
       <c r="S78" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="T78" t="s">
         <v>420</v>
       </c>
       <c r="U78" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="79">
@@ -7755,13 +7827,13 @@
         <v>442</v>
       </c>
       <c r="S79" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T79" t="s">
         <v>420</v>
       </c>
       <c r="U79" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="80">
@@ -7820,13 +7892,13 @@
         <v>451</v>
       </c>
       <c r="S80" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T80" t="s">
         <v>420</v>
       </c>
       <c r="U80" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="81">
@@ -7885,13 +7957,13 @@
         <v>461</v>
       </c>
       <c r="S81" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T81" t="s">
         <v>420</v>
       </c>
       <c r="U81" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="82">
@@ -7950,13 +8022,13 @@
         <v>464</v>
       </c>
       <c r="S82" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="T82" t="s">
         <v>420</v>
       </c>
       <c r="U82" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83">
@@ -8015,13 +8087,13 @@
         <v>460</v>
       </c>
       <c r="S83" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T83" t="s">
         <v>420</v>
       </c>
       <c r="U83" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="84">
@@ -8071,7 +8143,7 @@
         <v>1.0</v>
       </c>
       <c r="P84" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q84" t="e">
         <v>#N/A</v>
@@ -8080,13 +8152,13 @@
         <v>465</v>
       </c>
       <c r="S84" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T84" t="s">
         <v>420</v>
       </c>
       <c r="U84" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="85">
@@ -8136,7 +8208,7 @@
         <v>1.0</v>
       </c>
       <c r="P85" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Q85" t="n">
         <v>43241.0</v>
@@ -8145,13 +8217,13 @@
         <v>448</v>
       </c>
       <c r="S85" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T85" t="s">
         <v>420</v>
       </c>
       <c r="U85" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="86">
@@ -8213,7 +8285,7 @@
         <v>420</v>
       </c>
       <c r="T86" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="U86" t="e">
         <v>#N/A</v>
@@ -8278,7 +8350,7 @@
         <v>420</v>
       </c>
       <c r="T87" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="U87" t="e">
         <v>#N/A</v>
@@ -8318,20 +8390,20 @@
       <c r="K88" t="s">
         <v>429</v>
       </c>
-      <c r="L88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M88" t="e">
-        <v>#N/A</v>
+      <c r="L88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.9</v>
       </c>
       <c r="N88" t="s">
         <v>427</v>
       </c>
-      <c r="O88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P88" t="e">
-        <v>#N/A</v>
+      <c r="O88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q88" t="e">
         <v>#N/A</v>
@@ -8340,13 +8412,13 @@
         <v>452</v>
       </c>
       <c r="S88" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="T88" t="s">
         <v>420</v>
       </c>
       <c r="U88" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="89">
@@ -8383,20 +8455,20 @@
       <c r="K89" t="s">
         <v>425</v>
       </c>
-      <c r="L89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M89" t="e">
-        <v>#N/A</v>
+      <c r="L89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9</v>
       </c>
       <c r="N89" t="s">
         <v>438</v>
       </c>
-      <c r="O89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P89" t="e">
-        <v>#N/A</v>
+      <c r="O89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1.4</v>
       </c>
       <c r="Q89" t="e">
         <v>#N/A</v>
@@ -8405,13 +8477,13 @@
         <v>445</v>
       </c>
       <c r="S89" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="T89" t="s">
         <v>420</v>
       </c>
       <c r="U89" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="90">
@@ -8448,20 +8520,20 @@
       <c r="K90" t="s">
         <v>433</v>
       </c>
-      <c r="L90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M90" t="e">
-        <v>#N/A</v>
+      <c r="L90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2.0</v>
       </c>
       <c r="N90" t="s">
         <v>431</v>
       </c>
-      <c r="O90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P90" t="e">
-        <v>#N/A</v>
+      <c r="O90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q90" t="e">
         <v>#N/A</v>
@@ -8470,13 +8542,13 @@
         <v>454</v>
       </c>
       <c r="S90" t="s">
-        <v>420</v>
+        <v>491</v>
       </c>
       <c r="T90" t="s">
         <v>420</v>
       </c>
       <c r="U90" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="91">
@@ -8513,20 +8585,20 @@
       <c r="K91" t="s">
         <v>432</v>
       </c>
-      <c r="L91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M91" t="e">
-        <v>#N/A</v>
+      <c r="L91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.8</v>
       </c>
       <c r="N91" t="s">
         <v>436</v>
       </c>
-      <c r="O91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P91" t="e">
-        <v>#N/A</v>
+      <c r="O91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q91" t="e">
         <v>#N/A</v>
@@ -8535,13 +8607,13 @@
         <v>453</v>
       </c>
       <c r="S91" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
       <c r="T91" t="s">
         <v>420</v>
       </c>
       <c r="U91" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="92">
@@ -8578,20 +8650,20 @@
       <c r="K92" t="s">
         <v>435</v>
       </c>
-      <c r="L92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M92" t="e">
-        <v>#N/A</v>
+      <c r="L92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2.4</v>
       </c>
       <c r="N92" t="s">
         <v>422</v>
       </c>
-      <c r="O92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P92" t="e">
-        <v>#N/A</v>
+      <c r="O92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1.2</v>
       </c>
       <c r="Q92" t="e">
         <v>#N/A</v>
@@ -8600,13 +8672,13 @@
         <v>465</v>
       </c>
       <c r="S92" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="T92" t="s">
         <v>420</v>
       </c>
       <c r="U92" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="93">
@@ -8643,20 +8715,20 @@
       <c r="K93" t="s">
         <v>432</v>
       </c>
-      <c r="L93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M93" t="e">
-        <v>#N/A</v>
+      <c r="L93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.5</v>
       </c>
       <c r="N93" t="s">
         <v>423</v>
       </c>
-      <c r="O93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P93" t="e">
-        <v>#N/A</v>
+      <c r="O93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.7</v>
       </c>
       <c r="Q93" t="e">
         <v>#N/A</v>
@@ -8665,13 +8737,13 @@
         <v>453</v>
       </c>
       <c r="S93" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="T93" t="s">
         <v>420</v>
       </c>
       <c r="U93" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94">
@@ -8708,20 +8780,20 @@
       <c r="K94" t="s">
         <v>436</v>
       </c>
-      <c r="L94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M94" t="e">
-        <v>#N/A</v>
+      <c r="L94" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.3</v>
       </c>
       <c r="N94" t="s">
         <v>430</v>
       </c>
-      <c r="O94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P94" t="e">
-        <v>#N/A</v>
+      <c r="O94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.6</v>
       </c>
       <c r="Q94" t="e">
         <v>#N/A</v>
@@ -8730,13 +8802,13 @@
         <v>457</v>
       </c>
       <c r="S94" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="T94" t="s">
         <v>420</v>
       </c>
       <c r="U94" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="95">
@@ -8773,20 +8845,20 @@
       <c r="K95" t="s">
         <v>438</v>
       </c>
-      <c r="L95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M95" t="e">
-        <v>#N/A</v>
+      <c r="L95" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.4</v>
       </c>
       <c r="N95" t="s">
         <v>431</v>
       </c>
-      <c r="O95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P95" t="e">
-        <v>#N/A</v>
+      <c r="O95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.2</v>
       </c>
       <c r="Q95" t="e">
         <v>#N/A</v>
@@ -8795,13 +8867,13 @@
         <v>463</v>
       </c>
       <c r="S95" t="s">
-        <v>420</v>
+        <v>499</v>
       </c>
       <c r="T95" t="s">
         <v>420</v>
       </c>
       <c r="U95" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="96">
@@ -8838,35 +8910,35 @@
       <c r="K96" t="s">
         <v>439</v>
       </c>
-      <c r="L96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M96" t="e">
-        <v>#N/A</v>
+      <c r="L96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.3</v>
       </c>
       <c r="N96" t="s">
         <v>428</v>
       </c>
-      <c r="O96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q96" t="e">
-        <v>#N/A</v>
+      <c r="O96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>48346.0</v>
       </c>
       <c r="R96" t="s">
         <v>460</v>
       </c>
       <c r="S96" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
       <c r="T96" t="s">
         <v>420</v>
       </c>
       <c r="U96" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="97">
@@ -8903,35 +8975,35 @@
       <c r="K97" t="s">
         <v>440</v>
       </c>
-      <c r="L97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M97" t="e">
-        <v>#N/A</v>
+      <c r="L97" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2.2</v>
       </c>
       <c r="N97" t="s">
         <v>427</v>
       </c>
-      <c r="O97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q97" t="e">
-        <v>#N/A</v>
+      <c r="O97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>42353.0</v>
       </c>
       <c r="R97" t="s">
         <v>461</v>
       </c>
       <c r="S97" t="s">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="T97" t="s">
         <v>420</v>
       </c>
       <c r="U97" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="98">
@@ -8968,35 +9040,35 @@
       <c r="K98" t="s">
         <v>441</v>
       </c>
-      <c r="L98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M98" t="e">
-        <v>#N/A</v>
+      <c r="L98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.8</v>
       </c>
       <c r="N98" t="s">
         <v>426</v>
       </c>
-      <c r="O98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q98" t="e">
-        <v>#N/A</v>
+      <c r="O98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4423.0</v>
       </c>
       <c r="R98" t="s">
         <v>462</v>
       </c>
       <c r="S98" t="s">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="T98" t="s">
         <v>420</v>
       </c>
       <c r="U98" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="99">
@@ -9033,20 +9105,20 @@
       <c r="K99" t="s">
         <v>433</v>
       </c>
-      <c r="L99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M99" t="e">
-        <v>#N/A</v>
+      <c r="L99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.6</v>
       </c>
       <c r="N99" t="s">
         <v>429</v>
       </c>
-      <c r="O99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P99" t="e">
-        <v>#N/A</v>
+      <c r="O99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.7</v>
       </c>
       <c r="Q99" t="e">
         <v>#N/A</v>
@@ -9055,13 +9127,13 @@
         <v>454</v>
       </c>
       <c r="S99" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
       <c r="T99" t="s">
         <v>420</v>
       </c>
       <c r="U99" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100">
@@ -9098,20 +9170,20 @@
       <c r="K100" t="s">
         <v>434</v>
       </c>
-      <c r="L100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M100" t="e">
-        <v>#N/A</v>
+      <c r="L100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8</v>
       </c>
       <c r="N100" t="s">
         <v>425</v>
       </c>
-      <c r="O100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P100" t="e">
-        <v>#N/A</v>
+      <c r="O100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.5</v>
       </c>
       <c r="Q100" t="e">
         <v>#N/A</v>
@@ -9120,13 +9192,13 @@
         <v>465</v>
       </c>
       <c r="S100" t="s">
-        <v>420</v>
+        <v>503</v>
       </c>
       <c r="T100" t="s">
         <v>420</v>
       </c>
       <c r="U100" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="101">
@@ -9163,20 +9235,20 @@
       <c r="K101" t="s">
         <v>437</v>
       </c>
-      <c r="L101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M101" t="e">
-        <v>#N/A</v>
+      <c r="L101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.6</v>
       </c>
       <c r="N101" t="s">
         <v>424</v>
       </c>
-      <c r="O101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P101" t="e">
-        <v>#N/A</v>
+      <c r="O101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q101" t="e">
         <v>#N/A</v>
@@ -9185,13 +9257,13 @@
         <v>458</v>
       </c>
       <c r="S101" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
       <c r="T101" t="s">
         <v>420</v>
       </c>
       <c r="U101" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="102">
@@ -9253,7 +9325,7 @@
         <v>420</v>
       </c>
       <c r="T102" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="U102" t="e">
         <v>#N/A</v>
@@ -9318,7 +9390,7 @@
         <v>420</v>
       </c>
       <c r="T103" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="U103" t="e">
         <v>#N/A</v>
@@ -9383,7 +9455,7 @@
         <v>420</v>
       </c>
       <c r="T104" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="U104" t="e">
         <v>#N/A</v>
@@ -9448,7 +9520,7 @@
         <v>420</v>
       </c>
       <c r="T105" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="U105" t="e">
         <v>#N/A</v>
@@ -9488,20 +9560,20 @@
       <c r="K106" t="s">
         <v>430</v>
       </c>
-      <c r="L106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M106" t="e">
-        <v>#N/A</v>
+      <c r="L106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2.4</v>
       </c>
       <c r="N106" t="s">
         <v>434</v>
       </c>
-      <c r="O106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P106" t="e">
-        <v>#N/A</v>
+      <c r="O106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q106" t="e">
         <v>#N/A</v>
@@ -9510,13 +9582,13 @@
         <v>450</v>
       </c>
       <c r="S106" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="T106" t="s">
         <v>420</v>
       </c>
       <c r="U106" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="107">
@@ -9553,20 +9625,20 @@
       <c r="K107" t="s">
         <v>425</v>
       </c>
-      <c r="L107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M107" t="e">
-        <v>#N/A</v>
+      <c r="L107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2.0</v>
       </c>
       <c r="N107" t="s">
         <v>432</v>
       </c>
-      <c r="O107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P107" t="e">
-        <v>#N/A</v>
+      <c r="O107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1.7</v>
       </c>
       <c r="Q107" t="e">
         <v>#N/A</v>
@@ -9575,13 +9647,13 @@
         <v>445</v>
       </c>
       <c r="S107" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
       <c r="T107" t="s">
         <v>420</v>
       </c>
       <c r="U107" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="108">
@@ -9618,20 +9690,20 @@
       <c r="K108" t="s">
         <v>431</v>
       </c>
-      <c r="L108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M108" t="e">
-        <v>#N/A</v>
+      <c r="L108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.4</v>
       </c>
       <c r="N108" t="s">
         <v>435</v>
       </c>
-      <c r="O108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P108" t="e">
-        <v>#N/A</v>
+      <c r="O108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q108" t="e">
         <v>#N/A</v>
@@ -9640,13 +9712,13 @@
         <v>451</v>
       </c>
       <c r="S108" t="s">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="T108" t="s">
         <v>420</v>
       </c>
       <c r="U108" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="109">
@@ -9683,20 +9755,20 @@
       <c r="K109" t="s">
         <v>429</v>
       </c>
-      <c r="L109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M109" t="e">
-        <v>#N/A</v>
+      <c r="L109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.1</v>
       </c>
       <c r="N109" t="s">
         <v>439</v>
       </c>
-      <c r="O109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P109" t="e">
-        <v>#N/A</v>
+      <c r="O109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q109" t="e">
         <v>#N/A</v>
@@ -9705,13 +9777,13 @@
         <v>452</v>
       </c>
       <c r="S109" t="s">
-        <v>420</v>
+        <v>504</v>
       </c>
       <c r="T109" t="s">
         <v>420</v>
       </c>
       <c r="U109" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="110">
@@ -9748,20 +9820,20 @@
       <c r="K110" t="s">
         <v>424</v>
       </c>
-      <c r="L110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M110" t="e">
-        <v>#N/A</v>
+      <c r="L110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1.0</v>
       </c>
       <c r="N110" t="s">
         <v>436</v>
       </c>
-      <c r="O110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P110" t="e">
-        <v>#N/A</v>
+      <c r="O110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.1</v>
       </c>
       <c r="Q110" t="e">
         <v>#N/A</v>
@@ -9770,13 +9842,13 @@
         <v>444</v>
       </c>
       <c r="S110" t="s">
-        <v>420</v>
+        <v>503</v>
       </c>
       <c r="T110" t="s">
         <v>420</v>
       </c>
       <c r="U110" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="111">
@@ -9813,35 +9885,35 @@
       <c r="K111" t="s">
         <v>428</v>
       </c>
-      <c r="L111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M111" t="e">
-        <v>#N/A</v>
+      <c r="L111" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.6</v>
       </c>
       <c r="N111" t="s">
         <v>438</v>
       </c>
-      <c r="O111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q111" t="e">
-        <v>#N/A</v>
+      <c r="O111" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>45183.0</v>
       </c>
       <c r="R111" t="s">
         <v>448</v>
       </c>
       <c r="S111" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="T111" t="s">
         <v>420</v>
       </c>
       <c r="U111" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112">
@@ -9900,13 +9972,13 @@
         <v>460</v>
       </c>
       <c r="S112" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T112" t="s">
         <v>420</v>
       </c>
       <c r="U112" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113">
@@ -9965,13 +10037,13 @@
         <v>466</v>
       </c>
       <c r="S113" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T113" t="s">
         <v>420</v>
       </c>
       <c r="U113" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="114">
@@ -10030,13 +10102,13 @@
         <v>462</v>
       </c>
       <c r="S114" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="T114" t="s">
         <v>420</v>
       </c>
       <c r="U114" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115">
@@ -10095,13 +10167,13 @@
         <v>455</v>
       </c>
       <c r="S115" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T115" t="s">
         <v>420</v>
       </c>
       <c r="U115" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116">
@@ -10160,13 +10232,13 @@
         <v>461</v>
       </c>
       <c r="S116" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T116" t="s">
         <v>420</v>
       </c>
       <c r="U116" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="117">
@@ -10225,13 +10297,13 @@
         <v>457</v>
       </c>
       <c r="S117" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="T117" t="s">
         <v>420</v>
       </c>
       <c r="U117" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="118">
@@ -10290,13 +10362,13 @@
         <v>454</v>
       </c>
       <c r="S118" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T118" t="s">
         <v>420</v>
       </c>
       <c r="U118" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119">
@@ -10355,13 +10427,13 @@
         <v>444</v>
       </c>
       <c r="S119" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T119" t="s">
         <v>420</v>
       </c>
       <c r="U119" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="120">
@@ -10420,13 +10492,13 @@
         <v>453</v>
       </c>
       <c r="S120" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="T120" t="s">
         <v>420</v>
       </c>
       <c r="U120" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="121">
@@ -10485,13 +10557,13 @@
         <v>458</v>
       </c>
       <c r="S121" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="T121" t="s">
         <v>420</v>
       </c>
       <c r="U121" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122">
@@ -10517,46 +10589,46 @@
         <v>39</v>
       </c>
       <c r="H122" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I122" t="n" s="2">
-        <v>45501.0</v>
+        <v>45500.0</v>
       </c>
       <c r="J122" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="K122" t="s">
-        <v>439</v>
-      </c>
-      <c r="L122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M122" t="e">
-        <v>#N/A</v>
+        <v>436</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.8</v>
       </c>
       <c r="N122" t="s">
-        <v>423</v>
-      </c>
-      <c r="O122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P122" t="e">
-        <v>#N/A</v>
+        <v>431</v>
+      </c>
+      <c r="O122" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0.6</v>
       </c>
       <c r="Q122" t="e">
         <v>#N/A</v>
       </c>
       <c r="R122" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="S122" t="s">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="T122" t="s">
         <v>420</v>
       </c>
       <c r="U122" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123">
@@ -10582,46 +10654,46 @@
         <v>39</v>
       </c>
       <c r="H123" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I123" t="n" s="2">
-        <v>45501.0</v>
+        <v>45500.0</v>
       </c>
       <c r="J123" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="K123" t="s">
-        <v>440</v>
-      </c>
-      <c r="L123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M123" t="e">
-        <v>#N/A</v>
+        <v>434</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.5</v>
       </c>
       <c r="N123" t="s">
-        <v>428</v>
-      </c>
-      <c r="O123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P123" t="e">
-        <v>#N/A</v>
+        <v>422</v>
+      </c>
+      <c r="O123" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>1.7</v>
       </c>
       <c r="Q123" t="e">
         <v>#N/A</v>
       </c>
       <c r="R123" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="S123" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="T123" t="s">
         <v>420</v>
       </c>
       <c r="U123" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="124">
@@ -10647,46 +10719,46 @@
         <v>39</v>
       </c>
       <c r="H124" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I124" t="n" s="2">
-        <v>45501.0</v>
+        <v>45500.0</v>
       </c>
       <c r="J124" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K124" t="s">
-        <v>438</v>
-      </c>
-      <c r="L124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M124" t="e">
-        <v>#N/A</v>
+        <v>439</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.9</v>
       </c>
       <c r="N124" t="s">
-        <v>427</v>
-      </c>
-      <c r="O124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P124" t="e">
-        <v>#N/A</v>
+        <v>423</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1.5</v>
       </c>
       <c r="Q124" t="e">
         <v>#N/A</v>
       </c>
       <c r="R124" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="S124" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="T124" t="s">
         <v>420</v>
       </c>
       <c r="U124" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="125">
@@ -10712,46 +10784,46 @@
         <v>39</v>
       </c>
       <c r="H125" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I125" t="n" s="2">
-        <v>45501.0</v>
+        <v>45500.0</v>
       </c>
       <c r="J125" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K125" t="s">
-        <v>436</v>
-      </c>
-      <c r="L125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M125" t="e">
-        <v>#N/A</v>
+        <v>432</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2.2</v>
       </c>
       <c r="N125" t="s">
-        <v>431</v>
-      </c>
-      <c r="O125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P125" t="e">
-        <v>#N/A</v>
+        <v>430</v>
+      </c>
+      <c r="O125" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0.6</v>
       </c>
       <c r="Q125" t="e">
         <v>#N/A</v>
       </c>
       <c r="R125" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="S125" t="s">
-        <v>420</v>
+        <v>503</v>
       </c>
       <c r="T125" t="s">
         <v>420</v>
       </c>
       <c r="U125" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="126">
@@ -10777,46 +10849,46 @@
         <v>39</v>
       </c>
       <c r="H126" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I126" t="n" s="2">
-        <v>45501.0</v>
+        <v>45500.0</v>
       </c>
       <c r="J126" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K126" t="s">
-        <v>434</v>
-      </c>
-      <c r="L126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M126" t="e">
-        <v>#N/A</v>
+        <v>433</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.3</v>
       </c>
       <c r="N126" t="s">
-        <v>422</v>
-      </c>
-      <c r="O126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q126" t="e">
-        <v>#N/A</v>
+        <v>425</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>41322.0</v>
       </c>
       <c r="R126" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="S126" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="T126" t="s">
         <v>420</v>
       </c>
       <c r="U126" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="127">
@@ -10848,40 +10920,40 @@
         <v>45501.0</v>
       </c>
       <c r="J127" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K127" t="s">
-        <v>437</v>
-      </c>
-      <c r="L127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M127" t="e">
-        <v>#N/A</v>
+        <v>441</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.4</v>
       </c>
       <c r="N127" t="s">
-        <v>426</v>
-      </c>
-      <c r="O127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q127" t="e">
-        <v>#N/A</v>
+        <v>424</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>7304.0</v>
       </c>
       <c r="R127" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="S127" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
       <c r="T127" t="s">
         <v>420</v>
       </c>
       <c r="U127" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128">
@@ -10913,40 +10985,40 @@
         <v>45501.0</v>
       </c>
       <c r="J128" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K128" t="s">
-        <v>441</v>
-      </c>
-      <c r="L128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M128" t="e">
-        <v>#N/A</v>
+        <v>435</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1.3</v>
       </c>
       <c r="N128" t="s">
-        <v>424</v>
-      </c>
-      <c r="O128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q128" t="e">
-        <v>#N/A</v>
+        <v>429</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>61883.0</v>
       </c>
       <c r="R128" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="S128" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="T128" t="s">
         <v>420</v>
       </c>
       <c r="U128" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="129">
@@ -10978,40 +11050,40 @@
         <v>45501.0</v>
       </c>
       <c r="J129" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K129" t="s">
-        <v>432</v>
-      </c>
-      <c r="L129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M129" t="e">
-        <v>#N/A</v>
+        <v>437</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.5</v>
       </c>
       <c r="N129" t="s">
-        <v>430</v>
-      </c>
-      <c r="O129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q129" t="e">
-        <v>#N/A</v>
+        <v>426</v>
+      </c>
+      <c r="O129" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>4452.0</v>
       </c>
       <c r="R129" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="S129" t="s">
-        <v>420</v>
+        <v>505</v>
       </c>
       <c r="T129" t="s">
         <v>420</v>
       </c>
       <c r="U129" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="130">
@@ -11043,40 +11115,40 @@
         <v>45501.0</v>
       </c>
       <c r="J130" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="K130" t="s">
-        <v>433</v>
-      </c>
-      <c r="L130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M130" t="e">
-        <v>#N/A</v>
+        <v>440</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.9</v>
       </c>
       <c r="N130" t="s">
-        <v>425</v>
-      </c>
-      <c r="O130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P130" t="e">
-        <v>#N/A</v>
+        <v>428</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q130" t="e">
         <v>#N/A</v>
       </c>
       <c r="R130" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="S130" t="s">
-        <v>420</v>
+        <v>495</v>
       </c>
       <c r="T130" t="s">
         <v>420</v>
       </c>
       <c r="U130" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="131">
@@ -11108,40 +11180,40 @@
         <v>45501.0</v>
       </c>
       <c r="J131" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="K131" t="s">
-        <v>435</v>
-      </c>
-      <c r="L131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M131" t="e">
-        <v>#N/A</v>
+        <v>438</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1.7</v>
       </c>
       <c r="N131" t="s">
-        <v>429</v>
-      </c>
-      <c r="O131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P131" t="e">
-        <v>#N/A</v>
+        <v>427</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0.9</v>
       </c>
       <c r="Q131" t="e">
         <v>#N/A</v>
       </c>
       <c r="R131" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="S131" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="T131" t="s">
         <v>420</v>
       </c>
       <c r="U131" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="132">
@@ -11167,46 +11239,46 @@
         <v>40</v>
       </c>
       <c r="H132" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I132" t="n" s="2">
-        <v>45508.0</v>
+        <v>45507.0</v>
       </c>
       <c r="J132" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K132" t="s">
-        <v>425</v>
-      </c>
-      <c r="L132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M132" t="e">
-        <v>#N/A</v>
+        <v>431</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.6</v>
       </c>
       <c r="N132" t="s">
-        <v>435</v>
-      </c>
-      <c r="O132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P132" t="e">
-        <v>#N/A</v>
+        <v>437</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q132" t="e">
         <v>#N/A</v>
       </c>
       <c r="R132" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="S132" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="T132" t="s">
         <v>420</v>
       </c>
       <c r="U132" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133">
@@ -11232,46 +11304,46 @@
         <v>40</v>
       </c>
       <c r="H133" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I133" t="n" s="2">
-        <v>45508.0</v>
+        <v>45507.0</v>
       </c>
       <c r="J133" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="K133" t="s">
-        <v>423</v>
-      </c>
-      <c r="L133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M133" t="e">
-        <v>#N/A</v>
+        <v>427</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.8</v>
       </c>
       <c r="N133" t="s">
-        <v>436</v>
-      </c>
-      <c r="O133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P133" t="e">
-        <v>#N/A</v>
+        <v>441</v>
+      </c>
+      <c r="O133" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>1.3</v>
       </c>
       <c r="Q133" t="e">
         <v>#N/A</v>
       </c>
       <c r="R133" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="S133" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="T133" t="s">
         <v>420</v>
       </c>
       <c r="U133" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="134">
@@ -11297,46 +11369,46 @@
         <v>40</v>
       </c>
       <c r="H134" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I134" t="n" s="2">
-        <v>45508.0</v>
+        <v>45507.0</v>
       </c>
       <c r="J134" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K134" t="s">
-        <v>427</v>
-      </c>
-      <c r="L134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M134" t="e">
-        <v>#N/A</v>
+        <v>429</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1.2</v>
       </c>
       <c r="N134" t="s">
-        <v>441</v>
-      </c>
-      <c r="O134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P134" t="e">
-        <v>#N/A</v>
+        <v>432</v>
+      </c>
+      <c r="O134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>3.1</v>
       </c>
       <c r="Q134" t="e">
         <v>#N/A</v>
       </c>
       <c r="R134" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="S134" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
       <c r="T134" t="s">
         <v>420</v>
       </c>
       <c r="U134" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135">
@@ -11362,46 +11434,46 @@
         <v>40</v>
       </c>
       <c r="H135" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I135" t="n" s="2">
-        <v>45508.0</v>
+        <v>45507.0</v>
       </c>
       <c r="J135" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K135" t="s">
-        <v>424</v>
-      </c>
-      <c r="L135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M135" t="e">
-        <v>#N/A</v>
+        <v>422</v>
+      </c>
+      <c r="L135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.2</v>
       </c>
       <c r="N135" t="s">
-        <v>439</v>
-      </c>
-      <c r="O135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q135" t="e">
-        <v>#N/A</v>
+        <v>440</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>15642.0</v>
       </c>
       <c r="R135" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="S135" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="T135" t="s">
         <v>420</v>
       </c>
       <c r="U135" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="136">
@@ -11427,46 +11499,46 @@
         <v>40</v>
       </c>
       <c r="H136" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I136" t="n" s="2">
-        <v>45508.0</v>
+        <v>45507.0</v>
       </c>
       <c r="J136" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K136" t="s">
-        <v>431</v>
-      </c>
-      <c r="L136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M136" t="e">
-        <v>#N/A</v>
+        <v>425</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.4</v>
       </c>
       <c r="N136" t="s">
-        <v>437</v>
-      </c>
-      <c r="O136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P136" t="e">
-        <v>#N/A</v>
+        <v>435</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0.3</v>
       </c>
       <c r="Q136" t="e">
         <v>#N/A</v>
       </c>
       <c r="R136" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="S136" t="s">
-        <v>420</v>
+        <v>491</v>
       </c>
       <c r="T136" t="s">
         <v>420</v>
       </c>
       <c r="U136" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="137">
@@ -11498,40 +11570,40 @@
         <v>45508.0</v>
       </c>
       <c r="J137" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K137" t="s">
-        <v>428</v>
-      </c>
-      <c r="L137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M137" t="e">
-        <v>#N/A</v>
+        <v>424</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1.1</v>
       </c>
       <c r="N137" t="s">
-        <v>434</v>
-      </c>
-      <c r="O137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P137" t="e">
-        <v>#N/A</v>
+        <v>439</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1.7</v>
       </c>
       <c r="Q137" t="e">
         <v>#N/A</v>
       </c>
       <c r="R137" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="S137" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="T137" t="s">
         <v>420</v>
       </c>
       <c r="U137" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="138">
@@ -11563,40 +11635,40 @@
         <v>45508.0</v>
       </c>
       <c r="J138" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K138" t="s">
-        <v>430</v>
-      </c>
-      <c r="L138" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M138" t="e">
-        <v>#N/A</v>
+        <v>428</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2.4</v>
       </c>
       <c r="N138" t="s">
-        <v>433</v>
-      </c>
-      <c r="O138" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P138" t="e">
-        <v>#N/A</v>
+        <v>434</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0.7</v>
       </c>
       <c r="Q138" t="e">
         <v>#N/A</v>
       </c>
       <c r="R138" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="S138" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
       <c r="T138" t="s">
         <v>420</v>
       </c>
       <c r="U138" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139">
@@ -11628,40 +11700,40 @@
         <v>45508.0</v>
       </c>
       <c r="J139" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K139" t="s">
-        <v>429</v>
-      </c>
-      <c r="L139" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M139" t="e">
-        <v>#N/A</v>
+        <v>426</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.9</v>
       </c>
       <c r="N139" t="s">
-        <v>432</v>
-      </c>
-      <c r="O139" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P139" t="e">
-        <v>#N/A</v>
+        <v>438</v>
+      </c>
+      <c r="O139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>2.2</v>
       </c>
       <c r="Q139" t="e">
         <v>#N/A</v>
       </c>
       <c r="R139" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="S139" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="T139" t="s">
         <v>420</v>
       </c>
       <c r="U139" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="140">
@@ -11693,40 +11765,40 @@
         <v>45508.0</v>
       </c>
       <c r="J140" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K140" t="s">
-        <v>426</v>
-      </c>
-      <c r="L140" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M140" t="e">
-        <v>#N/A</v>
+        <v>423</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.5</v>
       </c>
       <c r="N140" t="s">
-        <v>438</v>
-      </c>
-      <c r="O140" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P140" t="e">
-        <v>#N/A</v>
+        <v>436</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>1.4</v>
       </c>
       <c r="Q140" t="e">
         <v>#N/A</v>
       </c>
       <c r="R140" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="S140" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="T140" t="s">
         <v>420</v>
       </c>
       <c r="U140" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="141">
@@ -11752,46 +11824,46 @@
         <v>40</v>
       </c>
       <c r="H141" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="I141" t="n" s="2">
-        <v>45508.0</v>
+        <v>45509.0</v>
       </c>
       <c r="J141" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K141" t="s">
-        <v>422</v>
-      </c>
-      <c r="L141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M141" t="e">
-        <v>#N/A</v>
+        <v>430</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.8</v>
       </c>
       <c r="N141" t="s">
-        <v>440</v>
-      </c>
-      <c r="O141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P141" t="e">
-        <v>#N/A</v>
+        <v>433</v>
+      </c>
+      <c r="O141" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q141" t="e">
         <v>#N/A</v>
       </c>
       <c r="R141" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="S141" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="T141" t="s">
         <v>420</v>
       </c>
       <c r="U141" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="142">
@@ -11817,16 +11889,16 @@
         <v>41</v>
       </c>
       <c r="H142" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I142" t="n" s="2">
-        <v>45515.0</v>
+        <v>45514.0</v>
       </c>
       <c r="J142" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K142" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="L142" t="e">
         <v>#N/A</v>
@@ -11835,7 +11907,7 @@
         <v>#N/A</v>
       </c>
       <c r="N142" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O142" t="e">
         <v>#N/A</v>
@@ -11847,7 +11919,7 @@
         <v>#N/A</v>
       </c>
       <c r="R142" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="S142" t="s">
         <v>420</v>
@@ -11856,7 +11928,7 @@
         <v>420</v>
       </c>
       <c r="U142" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="143">
@@ -11882,13 +11954,13 @@
         <v>41</v>
       </c>
       <c r="H143" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I143" t="n" s="2">
-        <v>45515.0</v>
+        <v>45514.0</v>
       </c>
       <c r="J143" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K143" t="s">
         <v>437</v>
@@ -11912,7 +11984,7 @@
         <v>#N/A</v>
       </c>
       <c r="R143" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="S143" t="s">
         <v>420</v>
@@ -11921,7 +11993,7 @@
         <v>420</v>
       </c>
       <c r="U143" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="144">
@@ -11947,13 +12019,13 @@
         <v>41</v>
       </c>
       <c r="H144" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I144" t="n" s="2">
-        <v>45515.0</v>
+        <v>45514.0</v>
       </c>
       <c r="J144" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K144" t="s">
         <v>430</v>
@@ -11977,7 +12049,7 @@
         <v>#N/A</v>
       </c>
       <c r="R144" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="S144" t="s">
         <v>420</v>
@@ -11986,7 +12058,7 @@
         <v>420</v>
       </c>
       <c r="U144" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="145">
@@ -12012,16 +12084,16 @@
         <v>41</v>
       </c>
       <c r="H145" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I145" t="n" s="2">
-        <v>45515.0</v>
+        <v>45514.0</v>
       </c>
       <c r="J145" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K145" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L145" t="e">
         <v>#N/A</v>
@@ -12030,7 +12102,7 @@
         <v>#N/A</v>
       </c>
       <c r="N145" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="O145" t="e">
         <v>#N/A</v>
@@ -12042,7 +12114,7 @@
         <v>#N/A</v>
       </c>
       <c r="R145" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="S145" t="s">
         <v>420</v>
@@ -12051,7 +12123,7 @@
         <v>420</v>
       </c>
       <c r="U145" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="146">
@@ -12077,16 +12149,16 @@
         <v>41</v>
       </c>
       <c r="H146" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I146" t="n" s="2">
-        <v>45515.0</v>
+        <v>45514.0</v>
       </c>
       <c r="J146" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K146" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L146" t="e">
         <v>#N/A</v>
@@ -12095,7 +12167,7 @@
         <v>#N/A</v>
       </c>
       <c r="N146" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O146" t="e">
         <v>#N/A</v>
@@ -12107,7 +12179,7 @@
         <v>#N/A</v>
       </c>
       <c r="R146" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="S146" t="s">
         <v>420</v>
@@ -12116,7 +12188,7 @@
         <v>420</v>
       </c>
       <c r="U146" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="147">
@@ -12148,10 +12220,10 @@
         <v>45515.0</v>
       </c>
       <c r="J147" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K147" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L147" t="e">
         <v>#N/A</v>
@@ -12160,7 +12232,7 @@
         <v>#N/A</v>
       </c>
       <c r="N147" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="O147" t="e">
         <v>#N/A</v>
@@ -12172,7 +12244,7 @@
         <v>#N/A</v>
       </c>
       <c r="R147" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="S147" t="s">
         <v>420</v>
@@ -12181,7 +12253,7 @@
         <v>420</v>
       </c>
       <c r="U147" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="148">
@@ -12213,10 +12285,10 @@
         <v>45515.0</v>
       </c>
       <c r="J148" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K148" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="L148" t="e">
         <v>#N/A</v>
@@ -12225,7 +12297,7 @@
         <v>#N/A</v>
       </c>
       <c r="N148" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="O148" t="e">
         <v>#N/A</v>
@@ -12237,7 +12309,7 @@
         <v>#N/A</v>
       </c>
       <c r="R148" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="S148" t="s">
         <v>420</v>
@@ -12246,7 +12318,7 @@
         <v>420</v>
       </c>
       <c r="U148" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="149">
@@ -12278,10 +12350,10 @@
         <v>45515.0</v>
       </c>
       <c r="J149" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K149" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="L149" t="e">
         <v>#N/A</v>
@@ -12290,7 +12362,7 @@
         <v>#N/A</v>
       </c>
       <c r="N149" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="O149" t="e">
         <v>#N/A</v>
@@ -12302,7 +12374,7 @@
         <v>#N/A</v>
       </c>
       <c r="R149" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="S149" t="s">
         <v>420</v>
@@ -12311,7 +12383,7 @@
         <v>420</v>
       </c>
       <c r="U149" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="150">
@@ -12343,10 +12415,10 @@
         <v>45515.0</v>
       </c>
       <c r="J150" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K150" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L150" t="e">
         <v>#N/A</v>
@@ -12355,7 +12427,7 @@
         <v>#N/A</v>
       </c>
       <c r="N150" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O150" t="e">
         <v>#N/A</v>
@@ -12367,7 +12439,7 @@
         <v>#N/A</v>
       </c>
       <c r="R150" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="S150" t="s">
         <v>420</v>
@@ -12376,7 +12448,7 @@
         <v>420</v>
       </c>
       <c r="U150" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="151">
@@ -12408,10 +12480,10 @@
         <v>45515.0</v>
       </c>
       <c r="J151" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="K151" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="L151" t="e">
         <v>#N/A</v>
@@ -12420,7 +12492,7 @@
         <v>#N/A</v>
       </c>
       <c r="N151" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="O151" t="e">
         <v>#N/A</v>
@@ -12432,7 +12504,7 @@
         <v>#N/A</v>
       </c>
       <c r="R151" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="S151" t="s">
         <v>420</v>
@@ -12441,7 +12513,7 @@
         <v>420</v>
       </c>
       <c r="U151" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="152">
@@ -12467,16 +12539,16 @@
         <v>42</v>
       </c>
       <c r="H152" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I152" t="n" s="2">
-        <v>45522.0</v>
+        <v>45521.0</v>
       </c>
       <c r="J152" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K152" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="L152" t="e">
         <v>#N/A</v>
@@ -12485,7 +12557,7 @@
         <v>#N/A</v>
       </c>
       <c r="N152" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="O152" t="e">
         <v>#N/A</v>
@@ -12497,7 +12569,7 @@
         <v>#N/A</v>
       </c>
       <c r="R152" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="S152" t="s">
         <v>420</v>
@@ -12506,7 +12578,7 @@
         <v>420</v>
       </c>
       <c r="U152" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="153">
@@ -12532,13 +12604,13 @@
         <v>42</v>
       </c>
       <c r="H153" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I153" t="n" s="2">
-        <v>45522.0</v>
+        <v>45521.0</v>
       </c>
       <c r="J153" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K153" t="s">
         <v>441</v>
@@ -12562,7 +12634,7 @@
         <v>#N/A</v>
       </c>
       <c r="R153" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="S153" t="s">
         <v>420</v>
@@ -12571,7 +12643,7 @@
         <v>420</v>
       </c>
       <c r="U153" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="154">
@@ -12597,16 +12669,16 @@
         <v>42</v>
       </c>
       <c r="H154" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I154" t="n" s="2">
-        <v>45522.0</v>
+        <v>45521.0</v>
       </c>
       <c r="J154" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K154" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L154" t="e">
         <v>#N/A</v>
@@ -12615,7 +12687,7 @@
         <v>#N/A</v>
       </c>
       <c r="N154" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="O154" t="e">
         <v>#N/A</v>
@@ -12627,7 +12699,7 @@
         <v>#N/A</v>
       </c>
       <c r="R154" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="S154" t="s">
         <v>420</v>
@@ -12636,7 +12708,7 @@
         <v>420</v>
       </c>
       <c r="U154" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="155">
@@ -12662,16 +12734,16 @@
         <v>42</v>
       </c>
       <c r="H155" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I155" t="n" s="2">
-        <v>45522.0</v>
+        <v>45521.0</v>
       </c>
       <c r="J155" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K155" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L155" t="e">
         <v>#N/A</v>
@@ -12680,7 +12752,7 @@
         <v>#N/A</v>
       </c>
       <c r="N155" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O155" t="e">
         <v>#N/A</v>
@@ -12692,7 +12764,7 @@
         <v>#N/A</v>
       </c>
       <c r="R155" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="S155" t="s">
         <v>420</v>
@@ -12701,7 +12773,7 @@
         <v>420</v>
       </c>
       <c r="U155" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="156">
@@ -12733,10 +12805,10 @@
         <v>45522.0</v>
       </c>
       <c r="J156" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K156" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="L156" t="e">
         <v>#N/A</v>
@@ -12745,7 +12817,7 @@
         <v>#N/A</v>
       </c>
       <c r="N156" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="O156" t="e">
         <v>#N/A</v>
@@ -12757,7 +12829,7 @@
         <v>#N/A</v>
       </c>
       <c r="R156" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="S156" t="s">
         <v>420</v>
@@ -12766,7 +12838,7 @@
         <v>420</v>
       </c>
       <c r="U156" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="157">
@@ -12798,10 +12870,10 @@
         <v>45522.0</v>
       </c>
       <c r="J157" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K157" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="L157" t="e">
         <v>#N/A</v>
@@ -12810,7 +12882,7 @@
         <v>#N/A</v>
       </c>
       <c r="N157" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O157" t="e">
         <v>#N/A</v>
@@ -12822,7 +12894,7 @@
         <v>#N/A</v>
       </c>
       <c r="R157" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="S157" t="s">
         <v>420</v>
@@ -12831,7 +12903,7 @@
         <v>420</v>
       </c>
       <c r="U157" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="158">
@@ -12863,10 +12935,10 @@
         <v>45522.0</v>
       </c>
       <c r="J158" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K158" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L158" t="e">
         <v>#N/A</v>
@@ -12875,7 +12947,7 @@
         <v>#N/A</v>
       </c>
       <c r="N158" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="O158" t="e">
         <v>#N/A</v>
@@ -12887,7 +12959,7 @@
         <v>#N/A</v>
       </c>
       <c r="R158" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="S158" t="s">
         <v>420</v>
@@ -12896,7 +12968,7 @@
         <v>420</v>
       </c>
       <c r="U158" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="159">
@@ -12928,10 +13000,10 @@
         <v>45522.0</v>
       </c>
       <c r="J159" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K159" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L159" t="e">
         <v>#N/A</v>
@@ -12940,7 +13012,7 @@
         <v>#N/A</v>
       </c>
       <c r="N159" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="O159" t="e">
         <v>#N/A</v>
@@ -12952,7 +13024,7 @@
         <v>#N/A</v>
       </c>
       <c r="R159" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="S159" t="s">
         <v>420</v>
@@ -12961,7 +13033,7 @@
         <v>420</v>
       </c>
       <c r="U159" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="160">
@@ -12993,7 +13065,7 @@
         <v>45522.0</v>
       </c>
       <c r="J160" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K160" t="s">
         <v>432</v>
@@ -13017,7 +13089,7 @@
         <v>#N/A</v>
       </c>
       <c r="R160" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="S160" t="s">
         <v>420</v>
@@ -13026,7 +13098,7 @@
         <v>420</v>
       </c>
       <c r="U160" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="161">
@@ -13052,16 +13124,16 @@
         <v>42</v>
       </c>
       <c r="H161" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="I161" t="n" s="2">
-        <v>45522.0</v>
+        <v>45523.0</v>
       </c>
       <c r="J161" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K161" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L161" t="e">
         <v>#N/A</v>
@@ -13070,7 +13142,7 @@
         <v>#N/A</v>
       </c>
       <c r="N161" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="O161" t="e">
         <v>#N/A</v>
@@ -13082,7 +13154,7 @@
         <v>#N/A</v>
       </c>
       <c r="R161" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="S161" t="s">
         <v>420</v>
@@ -13091,7 +13163,7 @@
         <v>420</v>
       </c>
       <c r="U161" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="162">
@@ -13117,16 +13189,16 @@
         <v>43</v>
       </c>
       <c r="H162" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I162" t="n" s="2">
-        <v>45529.0</v>
+        <v>45528.0</v>
       </c>
       <c r="J162" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K162" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L162" t="e">
         <v>#N/A</v>
@@ -13135,7 +13207,7 @@
         <v>#N/A</v>
       </c>
       <c r="N162" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="O162" t="e">
         <v>#N/A</v>
@@ -13147,7 +13219,7 @@
         <v>#N/A</v>
       </c>
       <c r="R162" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="S162" t="s">
         <v>420</v>
@@ -13156,7 +13228,7 @@
         <v>420</v>
       </c>
       <c r="U162" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="163">
@@ -13182,16 +13254,16 @@
         <v>43</v>
       </c>
       <c r="H163" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I163" t="n" s="2">
-        <v>45529.0</v>
+        <v>45528.0</v>
       </c>
       <c r="J163" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K163" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L163" t="e">
         <v>#N/A</v>
@@ -13200,7 +13272,7 @@
         <v>#N/A</v>
       </c>
       <c r="N163" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="O163" t="e">
         <v>#N/A</v>
@@ -13212,7 +13284,7 @@
         <v>#N/A</v>
       </c>
       <c r="R163" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="S163" t="s">
         <v>420</v>
@@ -13221,7 +13293,7 @@
         <v>420</v>
       </c>
       <c r="U163" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="164">
@@ -13247,16 +13319,16 @@
         <v>43</v>
       </c>
       <c r="H164" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I164" t="n" s="2">
-        <v>45529.0</v>
+        <v>45528.0</v>
       </c>
       <c r="J164" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K164" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="L164" t="e">
         <v>#N/A</v>
@@ -13265,7 +13337,7 @@
         <v>#N/A</v>
       </c>
       <c r="N164" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="O164" t="e">
         <v>#N/A</v>
@@ -13277,7 +13349,7 @@
         <v>#N/A</v>
       </c>
       <c r="R164" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="S164" t="s">
         <v>420</v>
@@ -13286,7 +13358,7 @@
         <v>420</v>
       </c>
       <c r="U164" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="165">
@@ -13318,10 +13390,10 @@
         <v>45529.0</v>
       </c>
       <c r="J165" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K165" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="L165" t="e">
         <v>#N/A</v>
@@ -13330,7 +13402,7 @@
         <v>#N/A</v>
       </c>
       <c r="N165" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="O165" t="e">
         <v>#N/A</v>
@@ -13342,7 +13414,7 @@
         <v>#N/A</v>
       </c>
       <c r="R165" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="S165" t="s">
         <v>420</v>
@@ -13351,7 +13423,7 @@
         <v>420</v>
       </c>
       <c r="U165" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="166">
@@ -13383,10 +13455,10 @@
         <v>45529.0</v>
       </c>
       <c r="J166" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K166" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="L166" t="e">
         <v>#N/A</v>
@@ -13395,7 +13467,7 @@
         <v>#N/A</v>
       </c>
       <c r="N166" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="O166" t="e">
         <v>#N/A</v>
@@ -13407,7 +13479,7 @@
         <v>#N/A</v>
       </c>
       <c r="R166" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="S166" t="s">
         <v>420</v>
@@ -13416,7 +13488,7 @@
         <v>420</v>
       </c>
       <c r="U166" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="167">
@@ -13448,10 +13520,10 @@
         <v>45529.0</v>
       </c>
       <c r="J167" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K167" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="L167" t="e">
         <v>#N/A</v>
@@ -13460,7 +13532,7 @@
         <v>#N/A</v>
       </c>
       <c r="N167" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="O167" t="e">
         <v>#N/A</v>
@@ -13472,7 +13544,7 @@
         <v>#N/A</v>
       </c>
       <c r="R167" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="S167" t="s">
         <v>420</v>
@@ -13481,7 +13553,7 @@
         <v>420</v>
       </c>
       <c r="U167" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="168">
@@ -13513,10 +13585,10 @@
         <v>45529.0</v>
       </c>
       <c r="J168" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K168" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L168" t="e">
         <v>#N/A</v>
@@ -13525,7 +13597,7 @@
         <v>#N/A</v>
       </c>
       <c r="N168" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O168" t="e">
         <v>#N/A</v>
@@ -13537,7 +13609,7 @@
         <v>#N/A</v>
       </c>
       <c r="R168" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="S168" t="s">
         <v>420</v>
@@ -13546,7 +13618,7 @@
         <v>420</v>
       </c>
       <c r="U168" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="169">
@@ -13578,10 +13650,10 @@
         <v>45529.0</v>
       </c>
       <c r="J169" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K169" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="L169" t="e">
         <v>#N/A</v>
@@ -13590,7 +13662,7 @@
         <v>#N/A</v>
       </c>
       <c r="N169" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O169" t="e">
         <v>#N/A</v>
@@ -13602,7 +13674,7 @@
         <v>#N/A</v>
       </c>
       <c r="R169" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="S169" t="s">
         <v>420</v>
@@ -13611,7 +13683,7 @@
         <v>420</v>
       </c>
       <c r="U169" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="170">
@@ -13643,10 +13715,10 @@
         <v>45529.0</v>
       </c>
       <c r="J170" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K170" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L170" t="e">
         <v>#N/A</v>
@@ -13655,7 +13727,7 @@
         <v>#N/A</v>
       </c>
       <c r="N170" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="O170" t="e">
         <v>#N/A</v>
@@ -13667,7 +13739,7 @@
         <v>#N/A</v>
       </c>
       <c r="R170" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="S170" t="s">
         <v>420</v>
@@ -13676,7 +13748,7 @@
         <v>420</v>
       </c>
       <c r="U170" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="171">
@@ -13702,13 +13774,13 @@
         <v>43</v>
       </c>
       <c r="H171" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="I171" t="n" s="2">
-        <v>45529.0</v>
+        <v>45530.0</v>
       </c>
       <c r="J171" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K171" t="s">
         <v>427</v>
@@ -13732,7 +13804,7 @@
         <v>#N/A</v>
       </c>
       <c r="R171" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="S171" t="s">
         <v>420</v>
@@ -13741,7 +13813,7 @@
         <v>420</v>
       </c>
       <c r="U171" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="172">
@@ -13767,16 +13839,16 @@
         <v>44</v>
       </c>
       <c r="H172" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I172" t="n" s="2">
-        <v>45536.0</v>
+        <v>45535.0</v>
       </c>
       <c r="J172" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K172" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="L172" t="e">
         <v>#N/A</v>
@@ -13785,7 +13857,7 @@
         <v>#N/A</v>
       </c>
       <c r="N172" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="O172" t="e">
         <v>#N/A</v>
@@ -13797,7 +13869,7 @@
         <v>#N/A</v>
       </c>
       <c r="R172" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="S172" t="s">
         <v>420</v>
@@ -13806,7 +13878,7 @@
         <v>420</v>
       </c>
       <c r="U172" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="173">
@@ -13832,13 +13904,13 @@
         <v>44</v>
       </c>
       <c r="H173" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I173" t="n" s="2">
-        <v>45536.0</v>
+        <v>45535.0</v>
       </c>
       <c r="J173" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K173" t="s">
         <v>437</v>
@@ -13862,7 +13934,7 @@
         <v>#N/A</v>
       </c>
       <c r="R173" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="S173" t="s">
         <v>420</v>
@@ -13871,7 +13943,7 @@
         <v>420</v>
       </c>
       <c r="U173" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="174">
@@ -13897,16 +13969,16 @@
         <v>44</v>
       </c>
       <c r="H174" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I174" t="n" s="2">
-        <v>45536.0</v>
+        <v>45535.0</v>
       </c>
       <c r="J174" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K174" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L174" t="e">
         <v>#N/A</v>
@@ -13915,7 +13987,7 @@
         <v>#N/A</v>
       </c>
       <c r="N174" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="O174" t="e">
         <v>#N/A</v>
@@ -13927,7 +13999,7 @@
         <v>#N/A</v>
       </c>
       <c r="R174" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="S174" t="s">
         <v>420</v>
@@ -13936,7 +14008,7 @@
         <v>420</v>
       </c>
       <c r="U174" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="175">
@@ -13968,10 +14040,10 @@
         <v>45536.0</v>
       </c>
       <c r="J175" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K175" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L175" t="e">
         <v>#N/A</v>
@@ -13980,7 +14052,7 @@
         <v>#N/A</v>
       </c>
       <c r="N175" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="O175" t="e">
         <v>#N/A</v>
@@ -13992,7 +14064,7 @@
         <v>#N/A</v>
       </c>
       <c r="R175" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="S175" t="s">
         <v>420</v>
@@ -14001,7 +14073,7 @@
         <v>420</v>
       </c>
       <c r="U175" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="176">
@@ -14033,10 +14105,10 @@
         <v>45536.0</v>
       </c>
       <c r="J176" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K176" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="L176" t="e">
         <v>#N/A</v>
@@ -14045,7 +14117,7 @@
         <v>#N/A</v>
       </c>
       <c r="N176" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O176" t="e">
         <v>#N/A</v>
@@ -14057,7 +14129,7 @@
         <v>#N/A</v>
       </c>
       <c r="R176" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="S176" t="s">
         <v>420</v>
@@ -14066,7 +14138,7 @@
         <v>420</v>
       </c>
       <c r="U176" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="177">
@@ -14098,10 +14170,10 @@
         <v>45536.0</v>
       </c>
       <c r="J177" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K177" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L177" t="e">
         <v>#N/A</v>
@@ -14110,7 +14182,7 @@
         <v>#N/A</v>
       </c>
       <c r="N177" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="O177" t="e">
         <v>#N/A</v>
@@ -14122,7 +14194,7 @@
         <v>#N/A</v>
       </c>
       <c r="R177" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="S177" t="s">
         <v>420</v>
@@ -14131,7 +14203,7 @@
         <v>420</v>
       </c>
       <c r="U177" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="178">
@@ -14163,7 +14235,7 @@
         <v>45536.0</v>
       </c>
       <c r="J178" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K178" t="s">
         <v>428</v>
@@ -14187,7 +14259,7 @@
         <v>#N/A</v>
       </c>
       <c r="R178" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="S178" t="s">
         <v>420</v>
@@ -14196,7 +14268,7 @@
         <v>420</v>
       </c>
       <c r="U178" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="179">
@@ -14228,10 +14300,10 @@
         <v>45536.0</v>
       </c>
       <c r="J179" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K179" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L179" t="e">
         <v>#N/A</v>
@@ -14240,7 +14312,7 @@
         <v>#N/A</v>
       </c>
       <c r="N179" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O179" t="e">
         <v>#N/A</v>
@@ -14252,7 +14324,7 @@
         <v>#N/A</v>
       </c>
       <c r="R179" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="S179" t="s">
         <v>420</v>
@@ -14261,7 +14333,7 @@
         <v>420</v>
       </c>
       <c r="U179" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="180">
@@ -14293,10 +14365,10 @@
         <v>45536.0</v>
       </c>
       <c r="J180" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K180" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="L180" t="e">
         <v>#N/A</v>
@@ -14305,7 +14377,7 @@
         <v>#N/A</v>
       </c>
       <c r="N180" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O180" t="e">
         <v>#N/A</v>
@@ -14317,7 +14389,7 @@
         <v>#N/A</v>
       </c>
       <c r="R180" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="S180" t="s">
         <v>420</v>
@@ -14326,7 +14398,7 @@
         <v>420</v>
       </c>
       <c r="U180" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="181">
@@ -14358,10 +14430,10 @@
         <v>45536.0</v>
       </c>
       <c r="J181" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K181" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L181" t="e">
         <v>#N/A</v>
@@ -14370,7 +14442,7 @@
         <v>#N/A</v>
       </c>
       <c r="N181" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="O181" t="e">
         <v>#N/A</v>
@@ -14382,7 +14454,7 @@
         <v>#N/A</v>
       </c>
       <c r="R181" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="S181" t="s">
         <v>420</v>
@@ -14391,7 +14463,7 @@
         <v>420</v>
       </c>
       <c r="U181" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="182">
@@ -14456,7 +14528,7 @@
         <v>420</v>
       </c>
       <c r="U182" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="183">
@@ -14521,7 +14593,7 @@
         <v>420</v>
       </c>
       <c r="U183" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="184">
@@ -14586,7 +14658,7 @@
         <v>420</v>
       </c>
       <c r="U184" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="185">
@@ -14651,7 +14723,7 @@
         <v>420</v>
       </c>
       <c r="U185" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="186">
@@ -14716,7 +14788,7 @@
         <v>420</v>
       </c>
       <c r="U186" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="187">
@@ -14781,7 +14853,7 @@
         <v>420</v>
       </c>
       <c r="U187" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="188">
@@ -14846,7 +14918,7 @@
         <v>420</v>
       </c>
       <c r="U188" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="189">
@@ -14911,7 +14983,7 @@
         <v>420</v>
       </c>
       <c r="U189" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="190">
@@ -14976,7 +15048,7 @@
         <v>420</v>
       </c>
       <c r="U190" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="191">
@@ -15041,7 +15113,7 @@
         <v>420</v>
       </c>
       <c r="U191" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="192">
@@ -15106,7 +15178,7 @@
         <v>420</v>
       </c>
       <c r="U192" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="193">
@@ -15171,7 +15243,7 @@
         <v>420</v>
       </c>
       <c r="U193" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="194">
@@ -15236,7 +15308,7 @@
         <v>420</v>
       </c>
       <c r="U194" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="195">
@@ -15301,7 +15373,7 @@
         <v>420</v>
       </c>
       <c r="U195" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="196">
@@ -15366,7 +15438,7 @@
         <v>420</v>
       </c>
       <c r="U196" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="197">
@@ -15431,7 +15503,7 @@
         <v>420</v>
       </c>
       <c r="U197" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="198">
@@ -15496,7 +15568,7 @@
         <v>420</v>
       </c>
       <c r="U198" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="199">
@@ -15561,7 +15633,7 @@
         <v>420</v>
       </c>
       <c r="U199" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="200">
@@ -15626,7 +15698,7 @@
         <v>420</v>
       </c>
       <c r="U200" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="201">
@@ -15691,7 +15763,7 @@
         <v>420</v>
       </c>
       <c r="U201" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="202">
@@ -15756,7 +15828,7 @@
         <v>420</v>
       </c>
       <c r="U202" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="203">
@@ -15821,7 +15893,7 @@
         <v>420</v>
       </c>
       <c r="U203" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="204">
@@ -15886,7 +15958,7 @@
         <v>420</v>
       </c>
       <c r="U204" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="205">
@@ -15951,7 +16023,7 @@
         <v>420</v>
       </c>
       <c r="U205" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="206">
@@ -16016,7 +16088,7 @@
         <v>420</v>
       </c>
       <c r="U206" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="207">
@@ -16081,7 +16153,7 @@
         <v>420</v>
       </c>
       <c r="U207" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="208">
@@ -16146,7 +16218,7 @@
         <v>420</v>
       </c>
       <c r="U208" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="209">
@@ -16211,7 +16283,7 @@
         <v>420</v>
       </c>
       <c r="U209" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="210">
@@ -16276,7 +16348,7 @@
         <v>420</v>
       </c>
       <c r="U210" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="211">
@@ -16341,7 +16413,7 @@
         <v>420</v>
       </c>
       <c r="U211" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="212">
@@ -16406,7 +16478,7 @@
         <v>420</v>
       </c>
       <c r="U212" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="213">
@@ -16471,7 +16543,7 @@
         <v>420</v>
       </c>
       <c r="U213" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="214">
@@ -16536,7 +16608,7 @@
         <v>420</v>
       </c>
       <c r="U214" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="215">
@@ -16601,7 +16673,7 @@
         <v>420</v>
       </c>
       <c r="U215" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="216">
@@ -16666,7 +16738,7 @@
         <v>420</v>
       </c>
       <c r="U216" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="217">
@@ -16731,7 +16803,7 @@
         <v>420</v>
       </c>
       <c r="U217" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="218">
@@ -16796,7 +16868,7 @@
         <v>420</v>
       </c>
       <c r="U218" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="219">
@@ -16861,7 +16933,7 @@
         <v>420</v>
       </c>
       <c r="U219" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="220">
@@ -16926,7 +16998,7 @@
         <v>420</v>
       </c>
       <c r="U220" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="221">
@@ -16991,7 +17063,7 @@
         <v>420</v>
       </c>
       <c r="U221" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="222">
@@ -17050,13 +17122,13 @@
         <v>444</v>
       </c>
       <c r="S222" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="T222" t="s">
         <v>420</v>
       </c>
       <c r="U222" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="223">
@@ -17115,13 +17187,13 @@
         <v>462</v>
       </c>
       <c r="S223" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T223" t="s">
         <v>420</v>
       </c>
       <c r="U223" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="224">
@@ -17180,13 +17252,13 @@
         <v>466</v>
       </c>
       <c r="S224" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T224" t="s">
         <v>420</v>
       </c>
       <c r="U224" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="225">
@@ -17245,13 +17317,13 @@
         <v>461</v>
       </c>
       <c r="S225" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T225" t="s">
         <v>420</v>
       </c>
       <c r="U225" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="226">
@@ -17310,13 +17382,13 @@
         <v>451</v>
       </c>
       <c r="S226" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T226" t="s">
         <v>420</v>
       </c>
       <c r="U226" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="227">
@@ -17375,13 +17447,13 @@
         <v>457</v>
       </c>
       <c r="S227" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T227" t="s">
         <v>420</v>
       </c>
       <c r="U227" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="228">
@@ -17440,13 +17512,13 @@
         <v>446</v>
       </c>
       <c r="S228" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T228" t="s">
         <v>420</v>
       </c>
       <c r="U228" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="229">
@@ -17505,13 +17577,13 @@
         <v>452</v>
       </c>
       <c r="S229" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T229" t="s">
         <v>420</v>
       </c>
       <c r="U229" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="230">
@@ -17567,16 +17639,16 @@
         <v>13273.0</v>
       </c>
       <c r="R230" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="S230" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="T230" t="s">
         <v>420</v>
       </c>
       <c r="U230" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="231">
@@ -17613,20 +17685,20 @@
       <c r="K231" t="s">
         <v>422</v>
       </c>
-      <c r="L231" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M231" t="e">
-        <v>#N/A</v>
+      <c r="L231" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.5</v>
       </c>
       <c r="N231" t="s">
         <v>433</v>
       </c>
-      <c r="O231" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P231" t="e">
-        <v>#N/A</v>
+      <c r="O231" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>1.6</v>
       </c>
       <c r="Q231" t="e">
         <v>#N/A</v>
@@ -17635,13 +17707,13 @@
         <v>442</v>
       </c>
       <c r="S231" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="T231" t="s">
         <v>420</v>
       </c>
       <c r="U231" t="s">
-        <v>646</v>
+        <v>732</v>
       </c>
     </row>
     <row r="232">
@@ -17706,7 +17778,7 @@
         <v>420</v>
       </c>
       <c r="U232" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="233">
@@ -17771,7 +17843,7 @@
         <v>420</v>
       </c>
       <c r="U233" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="234">
@@ -17836,7 +17908,7 @@
         <v>420</v>
       </c>
       <c r="U234" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="235">
@@ -17901,7 +17973,7 @@
         <v>420</v>
       </c>
       <c r="U235" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="236">
@@ -17966,7 +18038,7 @@
         <v>420</v>
       </c>
       <c r="U236" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="237">
@@ -18031,7 +18103,7 @@
         <v>420</v>
       </c>
       <c r="U237" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="238">
@@ -18096,7 +18168,7 @@
         <v>420</v>
       </c>
       <c r="U238" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="239">
@@ -18161,7 +18233,7 @@
         <v>420</v>
       </c>
       <c r="U239" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="240">
@@ -18226,7 +18298,7 @@
         <v>420</v>
       </c>
       <c r="U240" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="241">
@@ -18291,7 +18363,7 @@
         <v>420</v>
       </c>
       <c r="U241" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="242">
@@ -18356,7 +18428,7 @@
         <v>420</v>
       </c>
       <c r="U242" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="243">
@@ -18421,7 +18493,7 @@
         <v>420</v>
       </c>
       <c r="U243" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="244">
@@ -18486,7 +18558,7 @@
         <v>420</v>
       </c>
       <c r="U244" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="245">
@@ -18551,7 +18623,7 @@
         <v>420</v>
       </c>
       <c r="U245" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="246">
@@ -18616,7 +18688,7 @@
         <v>420</v>
       </c>
       <c r="U246" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="247">
@@ -18681,7 +18753,7 @@
         <v>420</v>
       </c>
       <c r="U247" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="248">
@@ -18746,7 +18818,7 @@
         <v>420</v>
       </c>
       <c r="U248" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="249">
@@ -18811,7 +18883,7 @@
         <v>420</v>
       </c>
       <c r="U249" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="250">
@@ -18876,7 +18948,7 @@
         <v>420</v>
       </c>
       <c r="U250" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="251">
@@ -18941,7 +19013,7 @@
         <v>420</v>
       </c>
       <c r="U251" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="252">
@@ -19006,7 +19078,7 @@
         <v>420</v>
       </c>
       <c r="U252" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
     <row r="253">
@@ -19071,7 +19143,7 @@
         <v>420</v>
       </c>
       <c r="U253" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="254">
@@ -19136,7 +19208,7 @@
         <v>420</v>
       </c>
       <c r="U254" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="255">
@@ -19201,7 +19273,7 @@
         <v>420</v>
       </c>
       <c r="U255" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="256">
@@ -19266,7 +19338,7 @@
         <v>420</v>
       </c>
       <c r="U256" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="257">
@@ -19331,7 +19403,7 @@
         <v>420</v>
       </c>
       <c r="U257" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="258">
@@ -19396,7 +19468,7 @@
         <v>420</v>
       </c>
       <c r="U258" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="259">
@@ -19461,7 +19533,7 @@
         <v>420</v>
       </c>
       <c r="U259" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="260">
@@ -19526,7 +19598,7 @@
         <v>420</v>
       </c>
       <c r="U260" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="261">
@@ -19591,7 +19663,7 @@
         <v>420</v>
       </c>
       <c r="U261" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="262">
@@ -19656,7 +19728,7 @@
         <v>420</v>
       </c>
       <c r="U262" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="263">
@@ -19721,7 +19793,7 @@
         <v>420</v>
       </c>
       <c r="U263" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
     </row>
     <row r="264">
@@ -19786,7 +19858,7 @@
         <v>420</v>
       </c>
       <c r="U264" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="265">
@@ -19851,7 +19923,7 @@
         <v>420</v>
       </c>
       <c r="U265" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
     </row>
     <row r="266">
@@ -19916,7 +19988,7 @@
         <v>420</v>
       </c>
       <c r="U266" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="267">
@@ -19981,7 +20053,7 @@
         <v>420</v>
       </c>
       <c r="U267" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="268">
@@ -20046,7 +20118,7 @@
         <v>420</v>
       </c>
       <c r="U268" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="269">
@@ -20111,7 +20183,7 @@
         <v>420</v>
       </c>
       <c r="U269" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
     </row>
     <row r="270">
@@ -20176,7 +20248,7 @@
         <v>420</v>
       </c>
       <c r="U270" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="271">
@@ -20241,7 +20313,7 @@
         <v>420</v>
       </c>
       <c r="U271" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="272">
@@ -20306,7 +20378,7 @@
         <v>420</v>
       </c>
       <c r="U272" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="273">
@@ -20371,7 +20443,7 @@
         <v>420</v>
       </c>
       <c r="U273" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="274">
@@ -20436,7 +20508,7 @@
         <v>420</v>
       </c>
       <c r="U274" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="275">
@@ -20501,7 +20573,7 @@
         <v>420</v>
       </c>
       <c r="U275" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="276">
@@ -20566,7 +20638,7 @@
         <v>420</v>
       </c>
       <c r="U276" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="277">
@@ -20631,7 +20703,7 @@
         <v>420</v>
       </c>
       <c r="U277" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="278">
@@ -20696,7 +20768,7 @@
         <v>420</v>
       </c>
       <c r="U278" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="279">
@@ -20761,7 +20833,7 @@
         <v>420</v>
       </c>
       <c r="U279" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="280">
@@ -20826,7 +20898,7 @@
         <v>420</v>
       </c>
       <c r="U280" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="281">
@@ -20891,7 +20963,7 @@
         <v>420</v>
       </c>
       <c r="U281" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="282">
@@ -20956,7 +21028,7 @@
         <v>420</v>
       </c>
       <c r="U282" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="283">
@@ -21021,7 +21093,7 @@
         <v>420</v>
       </c>
       <c r="U283" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="284">
@@ -21086,7 +21158,7 @@
         <v>420</v>
       </c>
       <c r="U284" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="285">
@@ -21151,7 +21223,7 @@
         <v>420</v>
       </c>
       <c r="U285" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="286">
@@ -21216,7 +21288,7 @@
         <v>420</v>
       </c>
       <c r="U286" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="287">
@@ -21281,7 +21353,7 @@
         <v>420</v>
       </c>
       <c r="U287" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="288">
@@ -21346,7 +21418,7 @@
         <v>420</v>
       </c>
       <c r="U288" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="289">
@@ -21411,7 +21483,7 @@
         <v>420</v>
       </c>
       <c r="U289" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="290">
@@ -21476,7 +21548,7 @@
         <v>420</v>
       </c>
       <c r="U290" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="291">
@@ -21541,7 +21613,7 @@
         <v>420</v>
       </c>
       <c r="U291" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="292">
@@ -21606,7 +21678,7 @@
         <v>420</v>
       </c>
       <c r="U292" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="293">
@@ -21671,7 +21743,7 @@
         <v>420</v>
       </c>
       <c r="U293" t="s">
-        <v>592</v>
+        <v>794</v>
       </c>
     </row>
     <row r="294">
@@ -21736,7 +21808,7 @@
         <v>420</v>
       </c>
       <c r="U294" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="295">
@@ -21801,7 +21873,7 @@
         <v>420</v>
       </c>
       <c r="U295" t="s">
-        <v>590</v>
+        <v>796</v>
       </c>
     </row>
     <row r="296">
@@ -21866,7 +21938,7 @@
         <v>420</v>
       </c>
       <c r="U296" t="s">
-        <v>593</v>
+        <v>797</v>
       </c>
     </row>
     <row r="297">
@@ -21931,7 +22003,7 @@
         <v>420</v>
       </c>
       <c r="U297" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="298">
@@ -21996,7 +22068,7 @@
         <v>420</v>
       </c>
       <c r="U298" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
     </row>
     <row r="299">
@@ -22061,7 +22133,7 @@
         <v>420</v>
       </c>
       <c r="U299" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
     </row>
     <row r="300">
@@ -22126,7 +22198,7 @@
         <v>420</v>
       </c>
       <c r="U300" t="s">
-        <v>591</v>
+        <v>801</v>
       </c>
     </row>
     <row r="301">
@@ -22191,7 +22263,7 @@
         <v>420</v>
       </c>
       <c r="U301" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
     </row>
     <row r="302">
@@ -22256,7 +22328,7 @@
         <v>420</v>
       </c>
       <c r="U302" t="s">
-        <v>598</v>
+        <v>803</v>
       </c>
     </row>
     <row r="303">
@@ -22321,7 +22393,7 @@
         <v>420</v>
       </c>
       <c r="U303" t="s">
-        <v>601</v>
+        <v>804</v>
       </c>
     </row>
     <row r="304">
@@ -22386,7 +22458,7 @@
         <v>420</v>
       </c>
       <c r="U304" t="s">
-        <v>594</v>
+        <v>805</v>
       </c>
     </row>
     <row r="305">
@@ -22451,7 +22523,7 @@
         <v>420</v>
       </c>
       <c r="U305" t="s">
-        <v>595</v>
+        <v>806</v>
       </c>
     </row>
     <row r="306">
@@ -22516,7 +22588,7 @@
         <v>420</v>
       </c>
       <c r="U306" t="s">
-        <v>596</v>
+        <v>807</v>
       </c>
     </row>
     <row r="307">
@@ -22581,7 +22653,7 @@
         <v>420</v>
       </c>
       <c r="U307" t="s">
-        <v>597</v>
+        <v>808</v>
       </c>
     </row>
     <row r="308">
@@ -22646,7 +22718,7 @@
         <v>420</v>
       </c>
       <c r="U308" t="s">
-        <v>599</v>
+        <v>809</v>
       </c>
     </row>
     <row r="309">
@@ -22711,7 +22783,7 @@
         <v>420</v>
       </c>
       <c r="U309" t="s">
-        <v>603</v>
+        <v>810</v>
       </c>
     </row>
     <row r="310">
@@ -22776,7 +22848,7 @@
         <v>420</v>
       </c>
       <c r="U310" t="s">
-        <v>600</v>
+        <v>811</v>
       </c>
     </row>
     <row r="311">
@@ -22841,7 +22913,7 @@
         <v>420</v>
       </c>
       <c r="U311" t="s">
-        <v>602</v>
+        <v>812</v>
       </c>
     </row>
     <row r="312">
@@ -22906,7 +22978,7 @@
         <v>420</v>
       </c>
       <c r="U312" t="s">
-        <v>605</v>
+        <v>813</v>
       </c>
     </row>
     <row r="313">
@@ -22971,7 +23043,7 @@
         <v>420</v>
       </c>
       <c r="U313" t="s">
-        <v>606</v>
+        <v>814</v>
       </c>
     </row>
     <row r="314">
@@ -23036,7 +23108,7 @@
         <v>420</v>
       </c>
       <c r="U314" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
     </row>
     <row r="315">
@@ -23101,7 +23173,7 @@
         <v>420</v>
       </c>
       <c r="U315" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
     </row>
     <row r="316">
@@ -23166,7 +23238,7 @@
         <v>420</v>
       </c>
       <c r="U316" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
     </row>
     <row r="317">
@@ -23231,7 +23303,7 @@
         <v>420</v>
       </c>
       <c r="U317" t="s">
-        <v>609</v>
+        <v>818</v>
       </c>
     </row>
     <row r="318">
@@ -23296,7 +23368,7 @@
         <v>420</v>
       </c>
       <c r="U318" t="s">
-        <v>608</v>
+        <v>819</v>
       </c>
     </row>
     <row r="319">
@@ -23361,7 +23433,7 @@
         <v>420</v>
       </c>
       <c r="U319" t="s">
-        <v>607</v>
+        <v>820</v>
       </c>
     </row>
     <row r="320">
@@ -23426,7 +23498,7 @@
         <v>420</v>
       </c>
       <c r="U320" t="s">
-        <v>604</v>
+        <v>821</v>
       </c>
     </row>
     <row r="321">
@@ -23491,7 +23563,7 @@
         <v>420</v>
       </c>
       <c r="U321" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
     </row>
     <row r="322">
@@ -23550,13 +23622,13 @@
         <v>447</v>
       </c>
       <c r="S322" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T322" t="s">
         <v>420</v>
       </c>
       <c r="U322" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
     </row>
     <row r="323">
@@ -23615,13 +23687,13 @@
         <v>458</v>
       </c>
       <c r="S323" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="T323" t="s">
         <v>420</v>
       </c>
       <c r="U323" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
     </row>
     <row r="324">
@@ -23680,13 +23752,13 @@
         <v>460</v>
       </c>
       <c r="S324" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T324" t="s">
         <v>420</v>
       </c>
       <c r="U324" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
     </row>
     <row r="325">
@@ -23745,13 +23817,13 @@
         <v>444</v>
       </c>
       <c r="S325" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T325" t="s">
         <v>420</v>
       </c>
       <c r="U325" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
     </row>
     <row r="326">
@@ -23810,13 +23882,13 @@
         <v>450</v>
       </c>
       <c r="S326" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="T326" t="s">
         <v>420</v>
       </c>
       <c r="U326" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
     </row>
     <row r="327">
@@ -23875,13 +23947,13 @@
         <v>448</v>
       </c>
       <c r="S327" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T327" t="s">
         <v>420</v>
       </c>
       <c r="U327" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
     </row>
     <row r="328">
@@ -23940,13 +24012,13 @@
         <v>454</v>
       </c>
       <c r="S328" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T328" t="s">
         <v>420</v>
       </c>
       <c r="U328" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
     </row>
     <row r="329">
@@ -24005,13 +24077,13 @@
         <v>455</v>
       </c>
       <c r="S329" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T329" t="s">
         <v>420</v>
       </c>
       <c r="U329" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
     </row>
     <row r="330">
@@ -24070,13 +24142,13 @@
         <v>443</v>
       </c>
       <c r="S330" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="T330" t="s">
         <v>420</v>
       </c>
       <c r="U330" t="s">
-        <v>807</v>
+        <v>831</v>
       </c>
     </row>
     <row r="331">
@@ -24135,13 +24207,13 @@
         <v>445</v>
       </c>
       <c r="S331" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="T331" t="s">
         <v>420</v>
       </c>
       <c r="U331" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
     </row>
     <row r="332">
@@ -24200,13 +24272,13 @@
         <v>468</v>
       </c>
       <c r="S332" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T332" t="s">
         <v>420</v>
       </c>
       <c r="U332" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
     </row>
     <row r="333">
@@ -24265,13 +24337,13 @@
         <v>462</v>
       </c>
       <c r="S333" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="T333" t="s">
         <v>420</v>
       </c>
       <c r="U333" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
     </row>
     <row r="334">
@@ -24330,13 +24402,13 @@
         <v>448</v>
       </c>
       <c r="S334" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T334" t="s">
         <v>420</v>
       </c>
       <c r="U334" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
     </row>
     <row r="335">
@@ -24362,46 +24434,46 @@
         <v>24</v>
       </c>
       <c r="H335" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I335" t="n" s="2">
-        <v>45416.0</v>
+        <v>45417.0</v>
       </c>
       <c r="J335" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K335" t="s">
-        <v>430</v>
-      </c>
-      <c r="L335" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M335" t="e">
-        <v>#N/A</v>
+        <v>431</v>
+      </c>
+      <c r="L335" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0.2</v>
       </c>
       <c r="N335" t="s">
-        <v>423</v>
-      </c>
-      <c r="O335" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P335" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q335" t="e">
-        <v>#N/A</v>
+        <v>425</v>
+      </c>
+      <c r="O335" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P335" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>25739.0</v>
       </c>
       <c r="R335" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="S335" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="T335" t="s">
-        <v>507</v>
-      </c>
-      <c r="U335" t="e">
-        <v>#N/A</v>
+        <v>420</v>
+      </c>
+      <c r="U335" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="336">
@@ -24436,37 +24508,37 @@
         <v>411</v>
       </c>
       <c r="K336" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L336" t="n">
         <v>1.0</v>
       </c>
       <c r="M336" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="N336" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O336" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P336" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="Q336" t="n">
-        <v>25739.0</v>
+        <v>31192.0</v>
       </c>
       <c r="R336" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="S336" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="T336" t="s">
         <v>420</v>
       </c>
       <c r="U336" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
     </row>
     <row r="337">
@@ -24501,37 +24573,37 @@
         <v>411</v>
       </c>
       <c r="K337" t="s">
-        <v>426</v>
-      </c>
-      <c r="L337" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M337" t="n">
-        <v>2.3</v>
+        <v>438</v>
+      </c>
+      <c r="L337" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M337" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N337" t="s">
-        <v>427</v>
-      </c>
-      <c r="O337" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P337" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q337" t="n">
-        <v>31192.0</v>
+        <v>422</v>
+      </c>
+      <c r="O337" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P337" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q337" t="e">
+        <v>#N/A</v>
       </c>
       <c r="R337" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="S337" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="T337" t="s">
-        <v>420</v>
-      </c>
-      <c r="U337" t="s">
-        <v>813</v>
+        <v>510</v>
+      </c>
+      <c r="U337" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="338">
@@ -24563,40 +24635,40 @@
         <v>45417.0</v>
       </c>
       <c r="J338" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K338" t="s">
-        <v>438</v>
-      </c>
-      <c r="L338" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M338" t="e">
-        <v>#N/A</v>
+        <v>437</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0.4</v>
       </c>
       <c r="N338" t="s">
-        <v>422</v>
-      </c>
-      <c r="O338" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P338" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q338" t="e">
-        <v>#N/A</v>
+        <v>436</v>
+      </c>
+      <c r="O338" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P338" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>10781.0</v>
       </c>
       <c r="R338" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="S338" t="s">
-        <v>420</v>
+        <v>495</v>
       </c>
       <c r="T338" t="s">
-        <v>507</v>
-      </c>
-      <c r="U338" t="e">
-        <v>#N/A</v>
+        <v>420</v>
+      </c>
+      <c r="U338" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="339">
@@ -24628,40 +24700,40 @@
         <v>45417.0</v>
       </c>
       <c r="J339" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K339" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L339" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M339" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N339" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="O339" t="n">
         <v>2.0</v>
       </c>
       <c r="P339" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q339" t="n">
-        <v>10781.0</v>
+        <v>22685.0</v>
       </c>
       <c r="R339" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="S339" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="T339" t="s">
         <v>420</v>
       </c>
       <c r="U339" t="s">
-        <v>814</v>
+        <v>839</v>
       </c>
     </row>
     <row r="340">
@@ -24687,46 +24759,46 @@
         <v>24</v>
       </c>
       <c r="H340" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I340" t="n" s="2">
-        <v>45417.0</v>
+        <v>45448.0</v>
       </c>
       <c r="J340" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K340" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L340" t="n">
         <v>1.0</v>
       </c>
       <c r="M340" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="N340" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="O340" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P340" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="Q340" t="n">
-        <v>22685.0</v>
+        <v>5123.0</v>
       </c>
       <c r="R340" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="S340" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="T340" t="s">
         <v>420</v>
       </c>
       <c r="U340" t="s">
-        <v>815</v>
+        <v>840</v>
       </c>
     </row>
     <row r="341">
@@ -24755,43 +24827,43 @@
         <v>405</v>
       </c>
       <c r="I341" t="n" s="2">
-        <v>45448.0</v>
+        <v>45532.0</v>
       </c>
       <c r="J341" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="K341" t="s">
-        <v>434</v>
-      </c>
-      <c r="L341" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M341" t="n">
-        <v>1.3</v>
+        <v>430</v>
+      </c>
+      <c r="L341" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M341" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N341" t="s">
-        <v>429</v>
-      </c>
-      <c r="O341" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P341" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q341" t="n">
-        <v>5123.0</v>
+        <v>423</v>
+      </c>
+      <c r="O341" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P341" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q341" t="e">
+        <v>#N/A</v>
       </c>
       <c r="R341" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="S341" t="s">
-        <v>501</v>
+        <v>420</v>
       </c>
       <c r="T341" t="s">
         <v>420</v>
       </c>
       <c r="U341" t="s">
-        <v>816</v>
+        <v>667</v>
       </c>
     </row>
     <row r="342">
@@ -24850,13 +24922,13 @@
         <v>444</v>
       </c>
       <c r="S342" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T342" t="s">
         <v>420</v>
       </c>
       <c r="U342" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
     </row>
     <row r="343">
@@ -24918,7 +24990,7 @@
         <v>420</v>
       </c>
       <c r="T343" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="U343" t="e">
         <v>#N/A</v>
@@ -24977,16 +25049,16 @@
         <v>12108.0</v>
       </c>
       <c r="R344" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S344" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T344" t="s">
         <v>420</v>
       </c>
       <c r="U344" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
     </row>
     <row r="345">
@@ -25045,13 +25117,13 @@
         <v>452</v>
       </c>
       <c r="S345" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T345" t="s">
         <v>420</v>
       </c>
       <c r="U345" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
     </row>
     <row r="346">
@@ -25110,13 +25182,13 @@
         <v>454</v>
       </c>
       <c r="S346" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="T346" t="s">
         <v>420</v>
       </c>
       <c r="U346" t="s">
-        <v>820</v>
+        <v>844</v>
       </c>
     </row>
     <row r="347">
@@ -25175,13 +25247,13 @@
         <v>460</v>
       </c>
       <c r="S347" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T347" t="s">
         <v>420</v>
       </c>
       <c r="U347" t="s">
-        <v>821</v>
+        <v>845</v>
       </c>
     </row>
     <row r="348">
@@ -25240,13 +25312,13 @@
         <v>447</v>
       </c>
       <c r="S348" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T348" t="s">
         <v>420</v>
       </c>
       <c r="U348" t="s">
-        <v>822</v>
+        <v>846</v>
       </c>
     </row>
     <row r="349">
@@ -25305,13 +25377,13 @@
         <v>445</v>
       </c>
       <c r="S349" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T349" t="s">
         <v>420</v>
       </c>
       <c r="U349" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
     </row>
     <row r="350">
@@ -25337,46 +25409,46 @@
         <v>25</v>
       </c>
       <c r="H350" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I350" t="n" s="2">
-        <v>45425.0</v>
+        <v>45452.0</v>
       </c>
       <c r="J350" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K350" t="s">
-        <v>423</v>
-      </c>
-      <c r="L350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M350" t="e">
-        <v>#N/A</v>
+        <v>422</v>
+      </c>
+      <c r="L350" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>1.8</v>
       </c>
       <c r="N350" t="s">
-        <v>434</v>
-      </c>
-      <c r="O350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q350" t="e">
-        <v>#N/A</v>
+        <v>437</v>
+      </c>
+      <c r="O350" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>13846.0</v>
       </c>
       <c r="R350" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S350" t="s">
-        <v>420</v>
+        <v>495</v>
       </c>
       <c r="T350" t="s">
-        <v>507</v>
-      </c>
-      <c r="U350" t="e">
-        <v>#N/A</v>
+        <v>420</v>
+      </c>
+      <c r="U350" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="351">
@@ -25402,46 +25474,46 @@
         <v>25</v>
       </c>
       <c r="H351" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I351" t="n" s="2">
-        <v>45452.0</v>
+        <v>45518.0</v>
       </c>
       <c r="J351" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K351" t="s">
-        <v>422</v>
-      </c>
-      <c r="L351" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M351" t="n">
-        <v>1.8</v>
+        <v>423</v>
+      </c>
+      <c r="L351" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M351" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N351" t="s">
-        <v>437</v>
-      </c>
-      <c r="O351" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="P351" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q351" t="n">
-        <v>13846.0</v>
+        <v>434</v>
+      </c>
+      <c r="O351" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P351" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q351" t="e">
+        <v>#N/A</v>
       </c>
       <c r="R351" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="S351" t="s">
-        <v>494</v>
+        <v>420</v>
       </c>
       <c r="T351" t="s">
         <v>420</v>
       </c>
       <c r="U351" t="s">
-        <v>824</v>
+        <v>680</v>
       </c>
     </row>
     <row r="352">
@@ -25500,13 +25572,13 @@
         <v>451</v>
       </c>
       <c r="S352" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="T352" t="s">
         <v>420</v>
       </c>
       <c r="U352" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
     </row>
     <row r="353">
@@ -25565,13 +25637,13 @@
         <v>459</v>
       </c>
       <c r="S353" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T353" t="s">
         <v>420</v>
       </c>
       <c r="U353" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
     </row>
     <row r="354">
@@ -25630,13 +25702,13 @@
         <v>458</v>
       </c>
       <c r="S354" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="T354" t="s">
         <v>420</v>
       </c>
       <c r="U354" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
     </row>
     <row r="355">
@@ -25695,13 +25767,13 @@
         <v>444</v>
       </c>
       <c r="S355" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T355" t="s">
         <v>420</v>
       </c>
       <c r="U355" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
     </row>
     <row r="356">
@@ -25760,13 +25832,13 @@
         <v>448</v>
       </c>
       <c r="S356" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T356" t="s">
         <v>420</v>
       </c>
       <c r="U356" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
     </row>
     <row r="357">
@@ -25825,13 +25897,13 @@
         <v>442</v>
       </c>
       <c r="S357" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T357" t="s">
         <v>420</v>
       </c>
       <c r="U357" t="s">
-        <v>830</v>
+        <v>854</v>
       </c>
     </row>
     <row r="358">
@@ -25890,13 +25962,13 @@
         <v>461</v>
       </c>
       <c r="S358" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T358" t="s">
         <v>420</v>
       </c>
       <c r="U358" t="s">
-        <v>831</v>
+        <v>855</v>
       </c>
     </row>
     <row r="359">
@@ -25955,13 +26027,13 @@
         <v>444</v>
       </c>
       <c r="S359" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T359" t="s">
         <v>420</v>
       </c>
       <c r="U359" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
     </row>
     <row r="360">
@@ -26020,13 +26092,13 @@
         <v>445</v>
       </c>
       <c r="S360" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="T360" t="s">
         <v>420</v>
       </c>
       <c r="U360" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
     </row>
     <row r="361">
@@ -26082,16 +26154,16 @@
         <v>12191.0</v>
       </c>
       <c r="R361" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S361" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T361" t="s">
         <v>420</v>
       </c>
       <c r="U361" t="s">
-        <v>834</v>
+        <v>858</v>
       </c>
     </row>
     <row r="362">
@@ -26150,13 +26222,13 @@
         <v>455</v>
       </c>
       <c r="S362" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T362" t="s">
         <v>420</v>
       </c>
       <c r="U362" t="s">
-        <v>835</v>
+        <v>859</v>
       </c>
     </row>
     <row r="363">
@@ -26215,13 +26287,13 @@
         <v>452</v>
       </c>
       <c r="S363" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="T363" t="s">
         <v>420</v>
       </c>
       <c r="U363" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
     </row>
     <row r="364">
@@ -26280,13 +26352,13 @@
         <v>453</v>
       </c>
       <c r="S364" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T364" t="s">
         <v>420</v>
       </c>
       <c r="U364" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
     </row>
     <row r="365">
@@ -26345,13 +26417,13 @@
         <v>462</v>
       </c>
       <c r="S365" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T365" t="s">
         <v>420</v>
       </c>
       <c r="U365" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
     </row>
     <row r="366">
@@ -26410,13 +26482,13 @@
         <v>450</v>
       </c>
       <c r="S366" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T366" t="s">
         <v>420</v>
       </c>
       <c r="U366" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
     </row>
     <row r="367">
@@ -26475,13 +26547,13 @@
         <v>444</v>
       </c>
       <c r="S367" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="T367" t="s">
         <v>420</v>
       </c>
       <c r="U367" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
     </row>
     <row r="368">
@@ -26540,13 +26612,13 @@
         <v>442</v>
       </c>
       <c r="S368" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T368" t="s">
         <v>420</v>
       </c>
       <c r="U368" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
     </row>
     <row r="369">
@@ -26605,13 +26677,13 @@
         <v>446</v>
       </c>
       <c r="S369" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T369" t="s">
         <v>420</v>
       </c>
       <c r="U369" t="s">
-        <v>842</v>
+        <v>866</v>
       </c>
     </row>
     <row r="370">
@@ -26670,13 +26742,13 @@
         <v>460</v>
       </c>
       <c r="S370" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T370" t="s">
         <v>420</v>
       </c>
       <c r="U370" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
     </row>
     <row r="371">
@@ -26735,13 +26807,13 @@
         <v>457</v>
       </c>
       <c r="S371" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T371" t="s">
         <v>420</v>
       </c>
       <c r="U371" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
     </row>
     <row r="372">
@@ -26800,13 +26872,13 @@
         <v>462</v>
       </c>
       <c r="S372" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="T372" t="s">
         <v>420</v>
       </c>
       <c r="U372" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
     </row>
     <row r="373">
@@ -26865,13 +26937,13 @@
         <v>444</v>
       </c>
       <c r="S373" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T373" t="s">
         <v>420</v>
       </c>
       <c r="U373" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
     </row>
     <row r="374">
@@ -26930,13 +27002,13 @@
         <v>451</v>
       </c>
       <c r="S374" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T374" t="s">
         <v>420</v>
       </c>
       <c r="U374" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
     </row>
     <row r="375">
@@ -26995,13 +27067,13 @@
         <v>448</v>
       </c>
       <c r="S375" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T375" t="s">
         <v>420</v>
       </c>
       <c r="U375" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
     </row>
     <row r="376">
@@ -27060,13 +27132,13 @@
         <v>446</v>
       </c>
       <c r="S376" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T376" t="s">
         <v>420</v>
       </c>
       <c r="U376" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
     </row>
     <row r="377">
@@ -27125,13 +27197,13 @@
         <v>458</v>
       </c>
       <c r="S377" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="T377" t="s">
         <v>420</v>
       </c>
       <c r="U377" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
     </row>
     <row r="378">
@@ -27190,13 +27262,13 @@
         <v>442</v>
       </c>
       <c r="S378" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T378" t="s">
         <v>420</v>
       </c>
       <c r="U378" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
     </row>
     <row r="379">
@@ -27255,13 +27327,13 @@
         <v>468</v>
       </c>
       <c r="S379" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="T379" t="s">
         <v>420</v>
       </c>
       <c r="U379" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
     </row>
     <row r="380">
@@ -27320,13 +27392,13 @@
         <v>447</v>
       </c>
       <c r="S380" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T380" t="s">
         <v>420</v>
       </c>
       <c r="U380" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
     </row>
     <row r="381">
@@ -27385,13 +27457,13 @@
         <v>461</v>
       </c>
       <c r="S381" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T381" t="s">
         <v>420</v>
       </c>
       <c r="U381" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
